--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginSignup" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="OrderPeriod" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="AddProductCategory1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AddCustomer" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CreateOrder" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="AddProductCategory1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="AddCustomer" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CreateOrder" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -35,67 +37,22 @@
     <t xml:space="preserve">Web Data 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Marta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kauffman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marta@weddatatech.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Dollar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child Web Data 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC,213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewYork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successfully created Child Web Data 2. You can now login with the username admin after your password is set. Password reset link is sent to your email.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Semi-monthly</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-Monthly</t>
   </si>
   <si>
-    <t xml:space="preserve">Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Customer</t>
+    <t xml:space="preserve">Services 1</t>
   </si>
   <si>
     <t xml:space="preserve">Billing Product 1</t>
   </si>
   <si>
     <t xml:space="preserve">'01/01/1970'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Dollar</t>
   </si>
   <si>
     <t xml:space="preserve">Billing Product 2</t>
@@ -107,124 +64,40 @@
     <t xml:space="preserve">Dependent Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Category Product1</t>
+    <t xml:space="preserve">Billing Category Product 1</t>
   </si>
   <si>
     <t xml:space="preserve">Monthly</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Category Product2</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Category Product 2</t>
   </si>
   <si>
     <t xml:space="preserve">One time</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Category Product3</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Category Product4</t>
+    <t xml:space="preserve">Billing Category Product 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Category Product5</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Category Product6</t>
+    <t xml:space="preserve">Billing Category Product 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Default</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">USD Customer</t>
+    <t xml:space="preserve">Billing Category Product 5</t>
   </si>
   <si>
-    <t xml:space="preserve">CAD Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canadian Dollar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = US$90.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = US$120.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = C$93.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = C$123.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = €96.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = €126.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'01/26/2017'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working as admin Child Web Data 2 X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'06/26/2018'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = US$99.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = US$129.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = C$102.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = C$132.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = €105.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = €135.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'01/01/2020'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = US$108.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = US$138.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = C$111.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = C$141.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = €114.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total = €144.00</t>
+    <t xml:space="preserve">Billing Category Product 6</t>
   </si>
 </sst>
 </file>
@@ -235,7 +108,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -261,32 +134,18 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,7 +157,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,11 +181,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,19 +191,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,75 +204,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,105 +220,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1925925925926"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="WebData@123"/>
-    <hyperlink ref="K1" r:id="rId2" display="marta@weddatatech.in"/>
-    <hyperlink ref="O1" r:id="rId3" display="H-50"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -549,1042 +238,24 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>18</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>19</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1600,32 +271,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="A1:AMI11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.32962962962963"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.7777777777778"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1296296296296"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="15.2148148148148"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.17407407407407"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.9296296296296"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.2148148148148"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="10.7777777777778"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
@@ -1633,30 +304,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>20</v>
-      </c>
+      <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -1664,8 +333,8 @@
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="0"/>
       <c r="S1" s="0"/>
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
@@ -2677,15 +1346,15 @@
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="1" t="n">
+      <c r="F2" s="3"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -3706,15 +2375,15 @@
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="1" t="n">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
@@ -4734,26 +3403,24 @@
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="1" t="n">
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -5772,24 +4439,24 @@
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
       </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="1" t="n">
+      <c r="H5" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>1</v>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
@@ -6807,24 +5474,24 @@
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
       </c>
+      <c r="F6" s="0"/>
       <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="1" t="n">
+      <c r="H6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="I6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>5</v>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -7837,48 +6504,5163 @@
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
     </row>
-    <row r="7" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="5" t="s">
-        <v>32</v>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
+      <c r="I7" s="0" t="s">
+        <v>13</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>2</v>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
+      <c r="BQ9" s="0"/>
+      <c r="BR9" s="0"/>
+      <c r="BS9" s="0"/>
+      <c r="BT9" s="0"/>
+      <c r="BU9" s="0"/>
+      <c r="BV9" s="0"/>
+      <c r="BW9" s="0"/>
+      <c r="BX9" s="0"/>
+      <c r="BY9" s="0"/>
+      <c r="BZ9" s="0"/>
+      <c r="CA9" s="0"/>
+      <c r="CB9" s="0"/>
+      <c r="CC9" s="0"/>
+      <c r="CD9" s="0"/>
+      <c r="CE9" s="0"/>
+      <c r="CF9" s="0"/>
+      <c r="CG9" s="0"/>
+      <c r="CH9" s="0"/>
+      <c r="CI9" s="0"/>
+      <c r="CJ9" s="0"/>
+      <c r="CK9" s="0"/>
+      <c r="CL9" s="0"/>
+      <c r="CM9" s="0"/>
+      <c r="CN9" s="0"/>
+      <c r="CO9" s="0"/>
+      <c r="CP9" s="0"/>
+      <c r="CQ9" s="0"/>
+      <c r="CR9" s="0"/>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="0"/>
+      <c r="CU9" s="0"/>
+      <c r="CV9" s="0"/>
+      <c r="CW9" s="0"/>
+      <c r="CX9" s="0"/>
+      <c r="CY9" s="0"/>
+      <c r="CZ9" s="0"/>
+      <c r="DA9" s="0"/>
+      <c r="DB9" s="0"/>
+      <c r="DC9" s="0"/>
+      <c r="DD9" s="0"/>
+      <c r="DE9" s="0"/>
+      <c r="DF9" s="0"/>
+      <c r="DG9" s="0"/>
+      <c r="DH9" s="0"/>
+      <c r="DI9" s="0"/>
+      <c r="DJ9" s="0"/>
+      <c r="DK9" s="0"/>
+      <c r="DL9" s="0"/>
+      <c r="DM9" s="0"/>
+      <c r="DN9" s="0"/>
+      <c r="DO9" s="0"/>
+      <c r="DP9" s="0"/>
+      <c r="DQ9" s="0"/>
+      <c r="DR9" s="0"/>
+      <c r="DS9" s="0"/>
+      <c r="DT9" s="0"/>
+      <c r="DU9" s="0"/>
+      <c r="DV9" s="0"/>
+      <c r="DW9" s="0"/>
+      <c r="DX9" s="0"/>
+      <c r="DY9" s="0"/>
+      <c r="DZ9" s="0"/>
+      <c r="EA9" s="0"/>
+      <c r="EB9" s="0"/>
+      <c r="EC9" s="0"/>
+      <c r="ED9" s="0"/>
+      <c r="EE9" s="0"/>
+      <c r="EF9" s="0"/>
+      <c r="EG9" s="0"/>
+      <c r="EH9" s="0"/>
+      <c r="EI9" s="0"/>
+      <c r="EJ9" s="0"/>
+      <c r="EK9" s="0"/>
+      <c r="EL9" s="0"/>
+      <c r="EM9" s="0"/>
+      <c r="EN9" s="0"/>
+      <c r="EO9" s="0"/>
+      <c r="EP9" s="0"/>
+      <c r="EQ9" s="0"/>
+      <c r="ER9" s="0"/>
+      <c r="ES9" s="0"/>
+      <c r="ET9" s="0"/>
+      <c r="EU9" s="0"/>
+      <c r="EV9" s="0"/>
+      <c r="EW9" s="0"/>
+      <c r="EX9" s="0"/>
+      <c r="EY9" s="0"/>
+      <c r="EZ9" s="0"/>
+      <c r="FA9" s="0"/>
+      <c r="FB9" s="0"/>
+      <c r="FC9" s="0"/>
+      <c r="FD9" s="0"/>
+      <c r="FE9" s="0"/>
+      <c r="FF9" s="0"/>
+      <c r="FG9" s="0"/>
+      <c r="FH9" s="0"/>
+      <c r="FI9" s="0"/>
+      <c r="FJ9" s="0"/>
+      <c r="FK9" s="0"/>
+      <c r="FL9" s="0"/>
+      <c r="FM9" s="0"/>
+      <c r="FN9" s="0"/>
+      <c r="FO9" s="0"/>
+      <c r="FP9" s="0"/>
+      <c r="FQ9" s="0"/>
+      <c r="FR9" s="0"/>
+      <c r="FS9" s="0"/>
+      <c r="FT9" s="0"/>
+      <c r="FU9" s="0"/>
+      <c r="FV9" s="0"/>
+      <c r="FW9" s="0"/>
+      <c r="FX9" s="0"/>
+      <c r="FY9" s="0"/>
+      <c r="FZ9" s="0"/>
+      <c r="GA9" s="0"/>
+      <c r="GB9" s="0"/>
+      <c r="GC9" s="0"/>
+      <c r="GD9" s="0"/>
+      <c r="GE9" s="0"/>
+      <c r="GF9" s="0"/>
+      <c r="GG9" s="0"/>
+      <c r="GH9" s="0"/>
+      <c r="GI9" s="0"/>
+      <c r="GJ9" s="0"/>
+      <c r="GK9" s="0"/>
+      <c r="GL9" s="0"/>
+      <c r="GM9" s="0"/>
+      <c r="GN9" s="0"/>
+      <c r="GO9" s="0"/>
+      <c r="GP9" s="0"/>
+      <c r="GQ9" s="0"/>
+      <c r="GR9" s="0"/>
+      <c r="GS9" s="0"/>
+      <c r="GT9" s="0"/>
+      <c r="GU9" s="0"/>
+      <c r="GV9" s="0"/>
+      <c r="GW9" s="0"/>
+      <c r="GX9" s="0"/>
+      <c r="GY9" s="0"/>
+      <c r="GZ9" s="0"/>
+      <c r="HA9" s="0"/>
+      <c r="HB9" s="0"/>
+      <c r="HC9" s="0"/>
+      <c r="HD9" s="0"/>
+      <c r="HE9" s="0"/>
+      <c r="HF9" s="0"/>
+      <c r="HG9" s="0"/>
+      <c r="HH9" s="0"/>
+      <c r="HI9" s="0"/>
+      <c r="HJ9" s="0"/>
+      <c r="HK9" s="0"/>
+      <c r="HL9" s="0"/>
+      <c r="HM9" s="0"/>
+      <c r="HN9" s="0"/>
+      <c r="HO9" s="0"/>
+      <c r="HP9" s="0"/>
+      <c r="HQ9" s="0"/>
+      <c r="HR9" s="0"/>
+      <c r="HS9" s="0"/>
+      <c r="HT9" s="0"/>
+      <c r="HU9" s="0"/>
+      <c r="HV9" s="0"/>
+      <c r="HW9" s="0"/>
+      <c r="HX9" s="0"/>
+      <c r="HY9" s="0"/>
+      <c r="HZ9" s="0"/>
+      <c r="IA9" s="0"/>
+      <c r="IB9" s="0"/>
+      <c r="IC9" s="0"/>
+      <c r="ID9" s="0"/>
+      <c r="IE9" s="0"/>
+      <c r="IF9" s="0"/>
+      <c r="IG9" s="0"/>
+      <c r="IH9" s="0"/>
+      <c r="II9" s="0"/>
+      <c r="IJ9" s="0"/>
+      <c r="IK9" s="0"/>
+      <c r="IL9" s="0"/>
+      <c r="IM9" s="0"/>
+      <c r="IN9" s="0"/>
+      <c r="IO9" s="0"/>
+      <c r="IP9" s="0"/>
+      <c r="IQ9" s="0"/>
+      <c r="IR9" s="0"/>
+      <c r="IS9" s="0"/>
+      <c r="IT9" s="0"/>
+      <c r="IU9" s="0"/>
+      <c r="IV9" s="0"/>
+      <c r="IW9" s="0"/>
+      <c r="IX9" s="0"/>
+      <c r="IY9" s="0"/>
+      <c r="IZ9" s="0"/>
+      <c r="JA9" s="0"/>
+      <c r="JB9" s="0"/>
+      <c r="JC9" s="0"/>
+      <c r="JD9" s="0"/>
+      <c r="JE9" s="0"/>
+      <c r="JF9" s="0"/>
+      <c r="JG9" s="0"/>
+      <c r="JH9" s="0"/>
+      <c r="JI9" s="0"/>
+      <c r="JJ9" s="0"/>
+      <c r="JK9" s="0"/>
+      <c r="JL9" s="0"/>
+      <c r="JM9" s="0"/>
+      <c r="JN9" s="0"/>
+      <c r="JO9" s="0"/>
+      <c r="JP9" s="0"/>
+      <c r="JQ9" s="0"/>
+      <c r="JR9" s="0"/>
+      <c r="JS9" s="0"/>
+      <c r="JT9" s="0"/>
+      <c r="JU9" s="0"/>
+      <c r="JV9" s="0"/>
+      <c r="JW9" s="0"/>
+      <c r="JX9" s="0"/>
+      <c r="JY9" s="0"/>
+      <c r="JZ9" s="0"/>
+      <c r="KA9" s="0"/>
+      <c r="KB9" s="0"/>
+      <c r="KC9" s="0"/>
+      <c r="KD9" s="0"/>
+      <c r="KE9" s="0"/>
+      <c r="KF9" s="0"/>
+      <c r="KG9" s="0"/>
+      <c r="KH9" s="0"/>
+      <c r="KI9" s="0"/>
+      <c r="KJ9" s="0"/>
+      <c r="KK9" s="0"/>
+      <c r="KL9" s="0"/>
+      <c r="KM9" s="0"/>
+      <c r="KN9" s="0"/>
+      <c r="KO9" s="0"/>
+      <c r="KP9" s="0"/>
+      <c r="KQ9" s="0"/>
+      <c r="KR9" s="0"/>
+      <c r="KS9" s="0"/>
+      <c r="KT9" s="0"/>
+      <c r="KU9" s="0"/>
+      <c r="KV9" s="0"/>
+      <c r="KW9" s="0"/>
+      <c r="KX9" s="0"/>
+      <c r="KY9" s="0"/>
+      <c r="KZ9" s="0"/>
+      <c r="LA9" s="0"/>
+      <c r="LB9" s="0"/>
+      <c r="LC9" s="0"/>
+      <c r="LD9" s="0"/>
+      <c r="LE9" s="0"/>
+      <c r="LF9" s="0"/>
+      <c r="LG9" s="0"/>
+      <c r="LH9" s="0"/>
+      <c r="LI9" s="0"/>
+      <c r="LJ9" s="0"/>
+      <c r="LK9" s="0"/>
+      <c r="LL9" s="0"/>
+      <c r="LM9" s="0"/>
+      <c r="LN9" s="0"/>
+      <c r="LO9" s="0"/>
+      <c r="LP9" s="0"/>
+      <c r="LQ9" s="0"/>
+      <c r="LR9" s="0"/>
+      <c r="LS9" s="0"/>
+      <c r="LT9" s="0"/>
+      <c r="LU9" s="0"/>
+      <c r="LV9" s="0"/>
+      <c r="LW9" s="0"/>
+      <c r="LX9" s="0"/>
+      <c r="LY9" s="0"/>
+      <c r="LZ9" s="0"/>
+      <c r="MA9" s="0"/>
+      <c r="MB9" s="0"/>
+      <c r="MC9" s="0"/>
+      <c r="MD9" s="0"/>
+      <c r="ME9" s="0"/>
+      <c r="MF9" s="0"/>
+      <c r="MG9" s="0"/>
+      <c r="MH9" s="0"/>
+      <c r="MI9" s="0"/>
+      <c r="MJ9" s="0"/>
+      <c r="MK9" s="0"/>
+      <c r="ML9" s="0"/>
+      <c r="MM9" s="0"/>
+      <c r="MN9" s="0"/>
+      <c r="MO9" s="0"/>
+      <c r="MP9" s="0"/>
+      <c r="MQ9" s="0"/>
+      <c r="MR9" s="0"/>
+      <c r="MS9" s="0"/>
+      <c r="MT9" s="0"/>
+      <c r="MU9" s="0"/>
+      <c r="MV9" s="0"/>
+      <c r="MW9" s="0"/>
+      <c r="MX9" s="0"/>
+      <c r="MY9" s="0"/>
+      <c r="MZ9" s="0"/>
+      <c r="NA9" s="0"/>
+      <c r="NB9" s="0"/>
+      <c r="NC9" s="0"/>
+      <c r="ND9" s="0"/>
+      <c r="NE9" s="0"/>
+      <c r="NF9" s="0"/>
+      <c r="NG9" s="0"/>
+      <c r="NH9" s="0"/>
+      <c r="NI9" s="0"/>
+      <c r="NJ9" s="0"/>
+      <c r="NK9" s="0"/>
+      <c r="NL9" s="0"/>
+      <c r="NM9" s="0"/>
+      <c r="NN9" s="0"/>
+      <c r="NO9" s="0"/>
+      <c r="NP9" s="0"/>
+      <c r="NQ9" s="0"/>
+      <c r="NR9" s="0"/>
+      <c r="NS9" s="0"/>
+      <c r="NT9" s="0"/>
+      <c r="NU9" s="0"/>
+      <c r="NV9" s="0"/>
+      <c r="NW9" s="0"/>
+      <c r="NX9" s="0"/>
+      <c r="NY9" s="0"/>
+      <c r="NZ9" s="0"/>
+      <c r="OA9" s="0"/>
+      <c r="OB9" s="0"/>
+      <c r="OC9" s="0"/>
+      <c r="OD9" s="0"/>
+      <c r="OE9" s="0"/>
+      <c r="OF9" s="0"/>
+      <c r="OG9" s="0"/>
+      <c r="OH9" s="0"/>
+      <c r="OI9" s="0"/>
+      <c r="OJ9" s="0"/>
+      <c r="OK9" s="0"/>
+      <c r="OL9" s="0"/>
+      <c r="OM9" s="0"/>
+      <c r="ON9" s="0"/>
+      <c r="OO9" s="0"/>
+      <c r="OP9" s="0"/>
+      <c r="OQ9" s="0"/>
+      <c r="OR9" s="0"/>
+      <c r="OS9" s="0"/>
+      <c r="OT9" s="0"/>
+      <c r="OU9" s="0"/>
+      <c r="OV9" s="0"/>
+      <c r="OW9" s="0"/>
+      <c r="OX9" s="0"/>
+      <c r="OY9" s="0"/>
+      <c r="OZ9" s="0"/>
+      <c r="PA9" s="0"/>
+      <c r="PB9" s="0"/>
+      <c r="PC9" s="0"/>
+      <c r="PD9" s="0"/>
+      <c r="PE9" s="0"/>
+      <c r="PF9" s="0"/>
+      <c r="PG9" s="0"/>
+      <c r="PH9" s="0"/>
+      <c r="PI9" s="0"/>
+      <c r="PJ9" s="0"/>
+      <c r="PK9" s="0"/>
+      <c r="PL9" s="0"/>
+      <c r="PM9" s="0"/>
+      <c r="PN9" s="0"/>
+      <c r="PO9" s="0"/>
+      <c r="PP9" s="0"/>
+      <c r="PQ9" s="0"/>
+      <c r="PR9" s="0"/>
+      <c r="PS9" s="0"/>
+      <c r="PT9" s="0"/>
+      <c r="PU9" s="0"/>
+      <c r="PV9" s="0"/>
+      <c r="PW9" s="0"/>
+      <c r="PX9" s="0"/>
+      <c r="PY9" s="0"/>
+      <c r="PZ9" s="0"/>
+      <c r="QA9" s="0"/>
+      <c r="QB9" s="0"/>
+      <c r="QC9" s="0"/>
+      <c r="QD9" s="0"/>
+      <c r="QE9" s="0"/>
+      <c r="QF9" s="0"/>
+      <c r="QG9" s="0"/>
+      <c r="QH9" s="0"/>
+      <c r="QI9" s="0"/>
+      <c r="QJ9" s="0"/>
+      <c r="QK9" s="0"/>
+      <c r="QL9" s="0"/>
+      <c r="QM9" s="0"/>
+      <c r="QN9" s="0"/>
+      <c r="QO9" s="0"/>
+      <c r="QP9" s="0"/>
+      <c r="QQ9" s="0"/>
+      <c r="QR9" s="0"/>
+      <c r="QS9" s="0"/>
+      <c r="QT9" s="0"/>
+      <c r="QU9" s="0"/>
+      <c r="QV9" s="0"/>
+      <c r="QW9" s="0"/>
+      <c r="QX9" s="0"/>
+      <c r="QY9" s="0"/>
+      <c r="QZ9" s="0"/>
+      <c r="RA9" s="0"/>
+      <c r="RB9" s="0"/>
+      <c r="RC9" s="0"/>
+      <c r="RD9" s="0"/>
+      <c r="RE9" s="0"/>
+      <c r="RF9" s="0"/>
+      <c r="RG9" s="0"/>
+      <c r="RH9" s="0"/>
+      <c r="RI9" s="0"/>
+      <c r="RJ9" s="0"/>
+      <c r="RK9" s="0"/>
+      <c r="RL9" s="0"/>
+      <c r="RM9" s="0"/>
+      <c r="RN9" s="0"/>
+      <c r="RO9" s="0"/>
+      <c r="RP9" s="0"/>
+      <c r="RQ9" s="0"/>
+      <c r="RR9" s="0"/>
+      <c r="RS9" s="0"/>
+      <c r="RT9" s="0"/>
+      <c r="RU9" s="0"/>
+      <c r="RV9" s="0"/>
+      <c r="RW9" s="0"/>
+      <c r="RX9" s="0"/>
+      <c r="RY9" s="0"/>
+      <c r="RZ9" s="0"/>
+      <c r="SA9" s="0"/>
+      <c r="SB9" s="0"/>
+      <c r="SC9" s="0"/>
+      <c r="SD9" s="0"/>
+      <c r="SE9" s="0"/>
+      <c r="SF9" s="0"/>
+      <c r="SG9" s="0"/>
+      <c r="SH9" s="0"/>
+      <c r="SI9" s="0"/>
+      <c r="SJ9" s="0"/>
+      <c r="SK9" s="0"/>
+      <c r="SL9" s="0"/>
+      <c r="SM9" s="0"/>
+      <c r="SN9" s="0"/>
+      <c r="SO9" s="0"/>
+      <c r="SP9" s="0"/>
+      <c r="SQ9" s="0"/>
+      <c r="SR9" s="0"/>
+      <c r="SS9" s="0"/>
+      <c r="ST9" s="0"/>
+      <c r="SU9" s="0"/>
+      <c r="SV9" s="0"/>
+      <c r="SW9" s="0"/>
+      <c r="SX9" s="0"/>
+      <c r="SY9" s="0"/>
+      <c r="SZ9" s="0"/>
+      <c r="TA9" s="0"/>
+      <c r="TB9" s="0"/>
+      <c r="TC9" s="0"/>
+      <c r="TD9" s="0"/>
+      <c r="TE9" s="0"/>
+      <c r="TF9" s="0"/>
+      <c r="TG9" s="0"/>
+      <c r="TH9" s="0"/>
+      <c r="TI9" s="0"/>
+      <c r="TJ9" s="0"/>
+      <c r="TK9" s="0"/>
+      <c r="TL9" s="0"/>
+      <c r="TM9" s="0"/>
+      <c r="TN9" s="0"/>
+      <c r="TO9" s="0"/>
+      <c r="TP9" s="0"/>
+      <c r="TQ9" s="0"/>
+      <c r="TR9" s="0"/>
+      <c r="TS9" s="0"/>
+      <c r="TT9" s="0"/>
+      <c r="TU9" s="0"/>
+      <c r="TV9" s="0"/>
+      <c r="TW9" s="0"/>
+      <c r="TX9" s="0"/>
+      <c r="TY9" s="0"/>
+      <c r="TZ9" s="0"/>
+      <c r="UA9" s="0"/>
+      <c r="UB9" s="0"/>
+      <c r="UC9" s="0"/>
+      <c r="UD9" s="0"/>
+      <c r="UE9" s="0"/>
+      <c r="UF9" s="0"/>
+      <c r="UG9" s="0"/>
+      <c r="UH9" s="0"/>
+      <c r="UI9" s="0"/>
+      <c r="UJ9" s="0"/>
+      <c r="UK9" s="0"/>
+      <c r="UL9" s="0"/>
+      <c r="UM9" s="0"/>
+      <c r="UN9" s="0"/>
+      <c r="UO9" s="0"/>
+      <c r="UP9" s="0"/>
+      <c r="UQ9" s="0"/>
+      <c r="UR9" s="0"/>
+      <c r="US9" s="0"/>
+      <c r="UT9" s="0"/>
+      <c r="UU9" s="0"/>
+      <c r="UV9" s="0"/>
+      <c r="UW9" s="0"/>
+      <c r="UX9" s="0"/>
+      <c r="UY9" s="0"/>
+      <c r="UZ9" s="0"/>
+      <c r="VA9" s="0"/>
+      <c r="VB9" s="0"/>
+      <c r="VC9" s="0"/>
+      <c r="VD9" s="0"/>
+      <c r="VE9" s="0"/>
+      <c r="VF9" s="0"/>
+      <c r="VG9" s="0"/>
+      <c r="VH9" s="0"/>
+      <c r="VI9" s="0"/>
+      <c r="VJ9" s="0"/>
+      <c r="VK9" s="0"/>
+      <c r="VL9" s="0"/>
+      <c r="VM9" s="0"/>
+      <c r="VN9" s="0"/>
+      <c r="VO9" s="0"/>
+      <c r="VP9" s="0"/>
+      <c r="VQ9" s="0"/>
+      <c r="VR9" s="0"/>
+      <c r="VS9" s="0"/>
+      <c r="VT9" s="0"/>
+      <c r="VU9" s="0"/>
+      <c r="VV9" s="0"/>
+      <c r="VW9" s="0"/>
+      <c r="VX9" s="0"/>
+      <c r="VY9" s="0"/>
+      <c r="VZ9" s="0"/>
+      <c r="WA9" s="0"/>
+      <c r="WB9" s="0"/>
+      <c r="WC9" s="0"/>
+      <c r="WD9" s="0"/>
+      <c r="WE9" s="0"/>
+      <c r="WF9" s="0"/>
+      <c r="WG9" s="0"/>
+      <c r="WH9" s="0"/>
+      <c r="WI9" s="0"/>
+      <c r="WJ9" s="0"/>
+      <c r="WK9" s="0"/>
+      <c r="WL9" s="0"/>
+      <c r="WM9" s="0"/>
+      <c r="WN9" s="0"/>
+      <c r="WO9" s="0"/>
+      <c r="WP9" s="0"/>
+      <c r="WQ9" s="0"/>
+      <c r="WR9" s="0"/>
+      <c r="WS9" s="0"/>
+      <c r="WT9" s="0"/>
+      <c r="WU9" s="0"/>
+      <c r="WV9" s="0"/>
+      <c r="WW9" s="0"/>
+      <c r="WX9" s="0"/>
+      <c r="WY9" s="0"/>
+      <c r="WZ9" s="0"/>
+      <c r="XA9" s="0"/>
+      <c r="XB9" s="0"/>
+      <c r="XC9" s="0"/>
+      <c r="XD9" s="0"/>
+      <c r="XE9" s="0"/>
+      <c r="XF9" s="0"/>
+      <c r="XG9" s="0"/>
+      <c r="XH9" s="0"/>
+      <c r="XI9" s="0"/>
+      <c r="XJ9" s="0"/>
+      <c r="XK9" s="0"/>
+      <c r="XL9" s="0"/>
+      <c r="XM9" s="0"/>
+      <c r="XN9" s="0"/>
+      <c r="XO9" s="0"/>
+      <c r="XP9" s="0"/>
+      <c r="XQ9" s="0"/>
+      <c r="XR9" s="0"/>
+      <c r="XS9" s="0"/>
+      <c r="XT9" s="0"/>
+      <c r="XU9" s="0"/>
+      <c r="XV9" s="0"/>
+      <c r="XW9" s="0"/>
+      <c r="XX9" s="0"/>
+      <c r="XY9" s="0"/>
+      <c r="XZ9" s="0"/>
+      <c r="YA9" s="0"/>
+      <c r="YB9" s="0"/>
+      <c r="YC9" s="0"/>
+      <c r="YD9" s="0"/>
+      <c r="YE9" s="0"/>
+      <c r="YF9" s="0"/>
+      <c r="YG9" s="0"/>
+      <c r="YH9" s="0"/>
+      <c r="YI9" s="0"/>
+      <c r="YJ9" s="0"/>
+      <c r="YK9" s="0"/>
+      <c r="YL9" s="0"/>
+      <c r="YM9" s="0"/>
+      <c r="YN9" s="0"/>
+      <c r="YO9" s="0"/>
+      <c r="YP9" s="0"/>
+      <c r="YQ9" s="0"/>
+      <c r="YR9" s="0"/>
+      <c r="YS9" s="0"/>
+      <c r="YT9" s="0"/>
+      <c r="YU9" s="0"/>
+      <c r="YV9" s="0"/>
+      <c r="YW9" s="0"/>
+      <c r="YX9" s="0"/>
+      <c r="YY9" s="0"/>
+      <c r="YZ9" s="0"/>
+      <c r="ZA9" s="0"/>
+      <c r="ZB9" s="0"/>
+      <c r="ZC9" s="0"/>
+      <c r="ZD9" s="0"/>
+      <c r="ZE9" s="0"/>
+      <c r="ZF9" s="0"/>
+      <c r="ZG9" s="0"/>
+      <c r="ZH9" s="0"/>
+      <c r="ZI9" s="0"/>
+      <c r="ZJ9" s="0"/>
+      <c r="ZK9" s="0"/>
+      <c r="ZL9" s="0"/>
+      <c r="ZM9" s="0"/>
+      <c r="ZN9" s="0"/>
+      <c r="ZO9" s="0"/>
+      <c r="ZP9" s="0"/>
+      <c r="ZQ9" s="0"/>
+      <c r="ZR9" s="0"/>
+      <c r="ZS9" s="0"/>
+      <c r="ZT9" s="0"/>
+      <c r="ZU9" s="0"/>
+      <c r="ZV9" s="0"/>
+      <c r="ZW9" s="0"/>
+      <c r="ZX9" s="0"/>
+      <c r="ZY9" s="0"/>
+      <c r="ZZ9" s="0"/>
+      <c r="AAA9" s="0"/>
+      <c r="AAB9" s="0"/>
+      <c r="AAC9" s="0"/>
+      <c r="AAD9" s="0"/>
+      <c r="AAE9" s="0"/>
+      <c r="AAF9" s="0"/>
+      <c r="AAG9" s="0"/>
+      <c r="AAH9" s="0"/>
+      <c r="AAI9" s="0"/>
+      <c r="AAJ9" s="0"/>
+      <c r="AAK9" s="0"/>
+      <c r="AAL9" s="0"/>
+      <c r="AAM9" s="0"/>
+      <c r="AAN9" s="0"/>
+      <c r="AAO9" s="0"/>
+      <c r="AAP9" s="0"/>
+      <c r="AAQ9" s="0"/>
+      <c r="AAR9" s="0"/>
+      <c r="AAS9" s="0"/>
+      <c r="AAT9" s="0"/>
+      <c r="AAU9" s="0"/>
+      <c r="AAV9" s="0"/>
+      <c r="AAW9" s="0"/>
+      <c r="AAX9" s="0"/>
+      <c r="AAY9" s="0"/>
+      <c r="AAZ9" s="0"/>
+      <c r="ABA9" s="0"/>
+      <c r="ABB9" s="0"/>
+      <c r="ABC9" s="0"/>
+      <c r="ABD9" s="0"/>
+      <c r="ABE9" s="0"/>
+      <c r="ABF9" s="0"/>
+      <c r="ABG9" s="0"/>
+      <c r="ABH9" s="0"/>
+      <c r="ABI9" s="0"/>
+      <c r="ABJ9" s="0"/>
+      <c r="ABK9" s="0"/>
+      <c r="ABL9" s="0"/>
+      <c r="ABM9" s="0"/>
+      <c r="ABN9" s="0"/>
+      <c r="ABO9" s="0"/>
+      <c r="ABP9" s="0"/>
+      <c r="ABQ9" s="0"/>
+      <c r="ABR9" s="0"/>
+      <c r="ABS9" s="0"/>
+      <c r="ABT9" s="0"/>
+      <c r="ABU9" s="0"/>
+      <c r="ABV9" s="0"/>
+      <c r="ABW9" s="0"/>
+      <c r="ABX9" s="0"/>
+      <c r="ABY9" s="0"/>
+      <c r="ABZ9" s="0"/>
+      <c r="ACA9" s="0"/>
+      <c r="ACB9" s="0"/>
+      <c r="ACC9" s="0"/>
+      <c r="ACD9" s="0"/>
+      <c r="ACE9" s="0"/>
+      <c r="ACF9" s="0"/>
+      <c r="ACG9" s="0"/>
+      <c r="ACH9" s="0"/>
+      <c r="ACI9" s="0"/>
+      <c r="ACJ9" s="0"/>
+      <c r="ACK9" s="0"/>
+      <c r="ACL9" s="0"/>
+      <c r="ACM9" s="0"/>
+      <c r="ACN9" s="0"/>
+      <c r="ACO9" s="0"/>
+      <c r="ACP9" s="0"/>
+      <c r="ACQ9" s="0"/>
+      <c r="ACR9" s="0"/>
+      <c r="ACS9" s="0"/>
+      <c r="ACT9" s="0"/>
+      <c r="ACU9" s="0"/>
+      <c r="ACV9" s="0"/>
+      <c r="ACW9" s="0"/>
+      <c r="ACX9" s="0"/>
+      <c r="ACY9" s="0"/>
+      <c r="ACZ9" s="0"/>
+      <c r="ADA9" s="0"/>
+      <c r="ADB9" s="0"/>
+      <c r="ADC9" s="0"/>
+      <c r="ADD9" s="0"/>
+      <c r="ADE9" s="0"/>
+      <c r="ADF9" s="0"/>
+      <c r="ADG9" s="0"/>
+      <c r="ADH9" s="0"/>
+      <c r="ADI9" s="0"/>
+      <c r="ADJ9" s="0"/>
+      <c r="ADK9" s="0"/>
+      <c r="ADL9" s="0"/>
+      <c r="ADM9" s="0"/>
+      <c r="ADN9" s="0"/>
+      <c r="ADO9" s="0"/>
+      <c r="ADP9" s="0"/>
+      <c r="ADQ9" s="0"/>
+      <c r="ADR9" s="0"/>
+      <c r="ADS9" s="0"/>
+      <c r="ADT9" s="0"/>
+      <c r="ADU9" s="0"/>
+      <c r="ADV9" s="0"/>
+      <c r="ADW9" s="0"/>
+      <c r="ADX9" s="0"/>
+      <c r="ADY9" s="0"/>
+      <c r="ADZ9" s="0"/>
+      <c r="AEA9" s="0"/>
+      <c r="AEB9" s="0"/>
+      <c r="AEC9" s="0"/>
+      <c r="AED9" s="0"/>
+      <c r="AEE9" s="0"/>
+      <c r="AEF9" s="0"/>
+      <c r="AEG9" s="0"/>
+      <c r="AEH9" s="0"/>
+      <c r="AEI9" s="0"/>
+      <c r="AEJ9" s="0"/>
+      <c r="AEK9" s="0"/>
+      <c r="AEL9" s="0"/>
+      <c r="AEM9" s="0"/>
+      <c r="AEN9" s="0"/>
+      <c r="AEO9" s="0"/>
+      <c r="AEP9" s="0"/>
+      <c r="AEQ9" s="0"/>
+      <c r="AER9" s="0"/>
+      <c r="AES9" s="0"/>
+      <c r="AET9" s="0"/>
+      <c r="AEU9" s="0"/>
+      <c r="AEV9" s="0"/>
+      <c r="AEW9" s="0"/>
+      <c r="AEX9" s="0"/>
+      <c r="AEY9" s="0"/>
+      <c r="AEZ9" s="0"/>
+      <c r="AFA9" s="0"/>
+      <c r="AFB9" s="0"/>
+      <c r="AFC9" s="0"/>
+      <c r="AFD9" s="0"/>
+      <c r="AFE9" s="0"/>
+      <c r="AFF9" s="0"/>
+      <c r="AFG9" s="0"/>
+      <c r="AFH9" s="0"/>
+      <c r="AFI9" s="0"/>
+      <c r="AFJ9" s="0"/>
+      <c r="AFK9" s="0"/>
+      <c r="AFL9" s="0"/>
+      <c r="AFM9" s="0"/>
+      <c r="AFN9" s="0"/>
+      <c r="AFO9" s="0"/>
+      <c r="AFP9" s="0"/>
+      <c r="AFQ9" s="0"/>
+      <c r="AFR9" s="0"/>
+      <c r="AFS9" s="0"/>
+      <c r="AFT9" s="0"/>
+      <c r="AFU9" s="0"/>
+      <c r="AFV9" s="0"/>
+      <c r="AFW9" s="0"/>
+      <c r="AFX9" s="0"/>
+      <c r="AFY9" s="0"/>
+      <c r="AFZ9" s="0"/>
+      <c r="AGA9" s="0"/>
+      <c r="AGB9" s="0"/>
+      <c r="AGC9" s="0"/>
+      <c r="AGD9" s="0"/>
+      <c r="AGE9" s="0"/>
+      <c r="AGF9" s="0"/>
+      <c r="AGG9" s="0"/>
+      <c r="AGH9" s="0"/>
+      <c r="AGI9" s="0"/>
+      <c r="AGJ9" s="0"/>
+      <c r="AGK9" s="0"/>
+      <c r="AGL9" s="0"/>
+      <c r="AGM9" s="0"/>
+      <c r="AGN9" s="0"/>
+      <c r="AGO9" s="0"/>
+      <c r="AGP9" s="0"/>
+      <c r="AGQ9" s="0"/>
+      <c r="AGR9" s="0"/>
+      <c r="AGS9" s="0"/>
+      <c r="AGT9" s="0"/>
+      <c r="AGU9" s="0"/>
+      <c r="AGV9" s="0"/>
+      <c r="AGW9" s="0"/>
+      <c r="AGX9" s="0"/>
+      <c r="AGY9" s="0"/>
+      <c r="AGZ9" s="0"/>
+      <c r="AHA9" s="0"/>
+      <c r="AHB9" s="0"/>
+      <c r="AHC9" s="0"/>
+      <c r="AHD9" s="0"/>
+      <c r="AHE9" s="0"/>
+      <c r="AHF9" s="0"/>
+      <c r="AHG9" s="0"/>
+      <c r="AHH9" s="0"/>
+      <c r="AHI9" s="0"/>
+      <c r="AHJ9" s="0"/>
+      <c r="AHK9" s="0"/>
+      <c r="AHL9" s="0"/>
+      <c r="AHM9" s="0"/>
+      <c r="AHN9" s="0"/>
+      <c r="AHO9" s="0"/>
+      <c r="AHP9" s="0"/>
+      <c r="AHQ9" s="0"/>
+      <c r="AHR9" s="0"/>
+      <c r="AHS9" s="0"/>
+      <c r="AHT9" s="0"/>
+      <c r="AHU9" s="0"/>
+      <c r="AHV9" s="0"/>
+      <c r="AHW9" s="0"/>
+      <c r="AHX9" s="0"/>
+      <c r="AHY9" s="0"/>
+      <c r="AHZ9" s="0"/>
+      <c r="AIA9" s="0"/>
+      <c r="AIB9" s="0"/>
+      <c r="AIC9" s="0"/>
+      <c r="AID9" s="0"/>
+      <c r="AIE9" s="0"/>
+      <c r="AIF9" s="0"/>
+      <c r="AIG9" s="0"/>
+      <c r="AIH9" s="0"/>
+      <c r="AII9" s="0"/>
+      <c r="AIJ9" s="0"/>
+      <c r="AIK9" s="0"/>
+      <c r="AIL9" s="0"/>
+      <c r="AIM9" s="0"/>
+      <c r="AIN9" s="0"/>
+      <c r="AIO9" s="0"/>
+      <c r="AIP9" s="0"/>
+      <c r="AIQ9" s="0"/>
+      <c r="AIR9" s="0"/>
+      <c r="AIS9" s="0"/>
+      <c r="AIT9" s="0"/>
+      <c r="AIU9" s="0"/>
+      <c r="AIV9" s="0"/>
+      <c r="AIW9" s="0"/>
+      <c r="AIX9" s="0"/>
+      <c r="AIY9" s="0"/>
+      <c r="AIZ9" s="0"/>
+      <c r="AJA9" s="0"/>
+      <c r="AJB9" s="0"/>
+      <c r="AJC9" s="0"/>
+      <c r="AJD9" s="0"/>
+      <c r="AJE9" s="0"/>
+      <c r="AJF9" s="0"/>
+      <c r="AJG9" s="0"/>
+      <c r="AJH9" s="0"/>
+      <c r="AJI9" s="0"/>
+      <c r="AJJ9" s="0"/>
+      <c r="AJK9" s="0"/>
+      <c r="AJL9" s="0"/>
+      <c r="AJM9" s="0"/>
+      <c r="AJN9" s="0"/>
+      <c r="AJO9" s="0"/>
+      <c r="AJP9" s="0"/>
+      <c r="AJQ9" s="0"/>
+      <c r="AJR9" s="0"/>
+      <c r="AJS9" s="0"/>
+      <c r="AJT9" s="0"/>
+      <c r="AJU9" s="0"/>
+      <c r="AJV9" s="0"/>
+      <c r="AJW9" s="0"/>
+      <c r="AJX9" s="0"/>
+      <c r="AJY9" s="0"/>
+      <c r="AJZ9" s="0"/>
+      <c r="AKA9" s="0"/>
+      <c r="AKB9" s="0"/>
+      <c r="AKC9" s="0"/>
+      <c r="AKD9" s="0"/>
+      <c r="AKE9" s="0"/>
+      <c r="AKF9" s="0"/>
+      <c r="AKG9" s="0"/>
+      <c r="AKH9" s="0"/>
+      <c r="AKI9" s="0"/>
+      <c r="AKJ9" s="0"/>
+      <c r="AKK9" s="0"/>
+      <c r="AKL9" s="0"/>
+      <c r="AKM9" s="0"/>
+      <c r="AKN9" s="0"/>
+      <c r="AKO9" s="0"/>
+      <c r="AKP9" s="0"/>
+      <c r="AKQ9" s="0"/>
+      <c r="AKR9" s="0"/>
+      <c r="AKS9" s="0"/>
+      <c r="AKT9" s="0"/>
+      <c r="AKU9" s="0"/>
+      <c r="AKV9" s="0"/>
+      <c r="AKW9" s="0"/>
+      <c r="AKX9" s="0"/>
+      <c r="AKY9" s="0"/>
+      <c r="AKZ9" s="0"/>
+      <c r="ALA9" s="0"/>
+      <c r="ALB9" s="0"/>
+      <c r="ALC9" s="0"/>
+      <c r="ALD9" s="0"/>
+      <c r="ALE9" s="0"/>
+      <c r="ALF9" s="0"/>
+      <c r="ALG9" s="0"/>
+      <c r="ALH9" s="0"/>
+      <c r="ALI9" s="0"/>
+      <c r="ALJ9" s="0"/>
+      <c r="ALK9" s="0"/>
+      <c r="ALL9" s="0"/>
+      <c r="ALM9" s="0"/>
+      <c r="ALN9" s="0"/>
+      <c r="ALO9" s="0"/>
+      <c r="ALP9" s="0"/>
+      <c r="ALQ9" s="0"/>
+      <c r="ALR9" s="0"/>
+      <c r="ALS9" s="0"/>
+      <c r="ALT9" s="0"/>
+      <c r="ALU9" s="0"/>
+      <c r="ALV9" s="0"/>
+      <c r="ALW9" s="0"/>
+      <c r="ALX9" s="0"/>
+      <c r="ALY9" s="0"/>
+      <c r="ALZ9" s="0"/>
+      <c r="AMA9" s="0"/>
+      <c r="AMB9" s="0"/>
+      <c r="AMC9" s="0"/>
+      <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
+      <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="0"/>
+      <c r="AQ10" s="0"/>
+      <c r="AR10" s="0"/>
+      <c r="AS10" s="0"/>
+      <c r="AT10" s="0"/>
+      <c r="AU10" s="0"/>
+      <c r="AV10" s="0"/>
+      <c r="AW10" s="0"/>
+      <c r="AX10" s="0"/>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BA10" s="0"/>
+      <c r="BB10" s="0"/>
+      <c r="BC10" s="0"/>
+      <c r="BD10" s="0"/>
+      <c r="BE10" s="0"/>
+      <c r="BF10" s="0"/>
+      <c r="BG10" s="0"/>
+      <c r="BH10" s="0"/>
+      <c r="BI10" s="0"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="0"/>
+      <c r="BL10" s="0"/>
+      <c r="BM10" s="0"/>
+      <c r="BN10" s="0"/>
+      <c r="BO10" s="0"/>
+      <c r="BP10" s="0"/>
+      <c r="BQ10" s="0"/>
+      <c r="BR10" s="0"/>
+      <c r="BS10" s="0"/>
+      <c r="BT10" s="0"/>
+      <c r="BU10" s="0"/>
+      <c r="BV10" s="0"/>
+      <c r="BW10" s="0"/>
+      <c r="BX10" s="0"/>
+      <c r="BY10" s="0"/>
+      <c r="BZ10" s="0"/>
+      <c r="CA10" s="0"/>
+      <c r="CB10" s="0"/>
+      <c r="CC10" s="0"/>
+      <c r="CD10" s="0"/>
+      <c r="CE10" s="0"/>
+      <c r="CF10" s="0"/>
+      <c r="CG10" s="0"/>
+      <c r="CH10" s="0"/>
+      <c r="CI10" s="0"/>
+      <c r="CJ10" s="0"/>
+      <c r="CK10" s="0"/>
+      <c r="CL10" s="0"/>
+      <c r="CM10" s="0"/>
+      <c r="CN10" s="0"/>
+      <c r="CO10" s="0"/>
+      <c r="CP10" s="0"/>
+      <c r="CQ10" s="0"/>
+      <c r="CR10" s="0"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="0"/>
+      <c r="CU10" s="0"/>
+      <c r="CV10" s="0"/>
+      <c r="CW10" s="0"/>
+      <c r="CX10" s="0"/>
+      <c r="CY10" s="0"/>
+      <c r="CZ10" s="0"/>
+      <c r="DA10" s="0"/>
+      <c r="DB10" s="0"/>
+      <c r="DC10" s="0"/>
+      <c r="DD10" s="0"/>
+      <c r="DE10" s="0"/>
+      <c r="DF10" s="0"/>
+      <c r="DG10" s="0"/>
+      <c r="DH10" s="0"/>
+      <c r="DI10" s="0"/>
+      <c r="DJ10" s="0"/>
+      <c r="DK10" s="0"/>
+      <c r="DL10" s="0"/>
+      <c r="DM10" s="0"/>
+      <c r="DN10" s="0"/>
+      <c r="DO10" s="0"/>
+      <c r="DP10" s="0"/>
+      <c r="DQ10" s="0"/>
+      <c r="DR10" s="0"/>
+      <c r="DS10" s="0"/>
+      <c r="DT10" s="0"/>
+      <c r="DU10" s="0"/>
+      <c r="DV10" s="0"/>
+      <c r="DW10" s="0"/>
+      <c r="DX10" s="0"/>
+      <c r="DY10" s="0"/>
+      <c r="DZ10" s="0"/>
+      <c r="EA10" s="0"/>
+      <c r="EB10" s="0"/>
+      <c r="EC10" s="0"/>
+      <c r="ED10" s="0"/>
+      <c r="EE10" s="0"/>
+      <c r="EF10" s="0"/>
+      <c r="EG10" s="0"/>
+      <c r="EH10" s="0"/>
+      <c r="EI10" s="0"/>
+      <c r="EJ10" s="0"/>
+      <c r="EK10" s="0"/>
+      <c r="EL10" s="0"/>
+      <c r="EM10" s="0"/>
+      <c r="EN10" s="0"/>
+      <c r="EO10" s="0"/>
+      <c r="EP10" s="0"/>
+      <c r="EQ10" s="0"/>
+      <c r="ER10" s="0"/>
+      <c r="ES10" s="0"/>
+      <c r="ET10" s="0"/>
+      <c r="EU10" s="0"/>
+      <c r="EV10" s="0"/>
+      <c r="EW10" s="0"/>
+      <c r="EX10" s="0"/>
+      <c r="EY10" s="0"/>
+      <c r="EZ10" s="0"/>
+      <c r="FA10" s="0"/>
+      <c r="FB10" s="0"/>
+      <c r="FC10" s="0"/>
+      <c r="FD10" s="0"/>
+      <c r="FE10" s="0"/>
+      <c r="FF10" s="0"/>
+      <c r="FG10" s="0"/>
+      <c r="FH10" s="0"/>
+      <c r="FI10" s="0"/>
+      <c r="FJ10" s="0"/>
+      <c r="FK10" s="0"/>
+      <c r="FL10" s="0"/>
+      <c r="FM10" s="0"/>
+      <c r="FN10" s="0"/>
+      <c r="FO10" s="0"/>
+      <c r="FP10" s="0"/>
+      <c r="FQ10" s="0"/>
+      <c r="FR10" s="0"/>
+      <c r="FS10" s="0"/>
+      <c r="FT10" s="0"/>
+      <c r="FU10" s="0"/>
+      <c r="FV10" s="0"/>
+      <c r="FW10" s="0"/>
+      <c r="FX10" s="0"/>
+      <c r="FY10" s="0"/>
+      <c r="FZ10" s="0"/>
+      <c r="GA10" s="0"/>
+      <c r="GB10" s="0"/>
+      <c r="GC10" s="0"/>
+      <c r="GD10" s="0"/>
+      <c r="GE10" s="0"/>
+      <c r="GF10" s="0"/>
+      <c r="GG10" s="0"/>
+      <c r="GH10" s="0"/>
+      <c r="GI10" s="0"/>
+      <c r="GJ10" s="0"/>
+      <c r="GK10" s="0"/>
+      <c r="GL10" s="0"/>
+      <c r="GM10" s="0"/>
+      <c r="GN10" s="0"/>
+      <c r="GO10" s="0"/>
+      <c r="GP10" s="0"/>
+      <c r="GQ10" s="0"/>
+      <c r="GR10" s="0"/>
+      <c r="GS10" s="0"/>
+      <c r="GT10" s="0"/>
+      <c r="GU10" s="0"/>
+      <c r="GV10" s="0"/>
+      <c r="GW10" s="0"/>
+      <c r="GX10" s="0"/>
+      <c r="GY10" s="0"/>
+      <c r="GZ10" s="0"/>
+      <c r="HA10" s="0"/>
+      <c r="HB10" s="0"/>
+      <c r="HC10" s="0"/>
+      <c r="HD10" s="0"/>
+      <c r="HE10" s="0"/>
+      <c r="HF10" s="0"/>
+      <c r="HG10" s="0"/>
+      <c r="HH10" s="0"/>
+      <c r="HI10" s="0"/>
+      <c r="HJ10" s="0"/>
+      <c r="HK10" s="0"/>
+      <c r="HL10" s="0"/>
+      <c r="HM10" s="0"/>
+      <c r="HN10" s="0"/>
+      <c r="HO10" s="0"/>
+      <c r="HP10" s="0"/>
+      <c r="HQ10" s="0"/>
+      <c r="HR10" s="0"/>
+      <c r="HS10" s="0"/>
+      <c r="HT10" s="0"/>
+      <c r="HU10" s="0"/>
+      <c r="HV10" s="0"/>
+      <c r="HW10" s="0"/>
+      <c r="HX10" s="0"/>
+      <c r="HY10" s="0"/>
+      <c r="HZ10" s="0"/>
+      <c r="IA10" s="0"/>
+      <c r="IB10" s="0"/>
+      <c r="IC10" s="0"/>
+      <c r="ID10" s="0"/>
+      <c r="IE10" s="0"/>
+      <c r="IF10" s="0"/>
+      <c r="IG10" s="0"/>
+      <c r="IH10" s="0"/>
+      <c r="II10" s="0"/>
+      <c r="IJ10" s="0"/>
+      <c r="IK10" s="0"/>
+      <c r="IL10" s="0"/>
+      <c r="IM10" s="0"/>
+      <c r="IN10" s="0"/>
+      <c r="IO10" s="0"/>
+      <c r="IP10" s="0"/>
+      <c r="IQ10" s="0"/>
+      <c r="IR10" s="0"/>
+      <c r="IS10" s="0"/>
+      <c r="IT10" s="0"/>
+      <c r="IU10" s="0"/>
+      <c r="IV10" s="0"/>
+      <c r="IW10" s="0"/>
+      <c r="IX10" s="0"/>
+      <c r="IY10" s="0"/>
+      <c r="IZ10" s="0"/>
+      <c r="JA10" s="0"/>
+      <c r="JB10" s="0"/>
+      <c r="JC10" s="0"/>
+      <c r="JD10" s="0"/>
+      <c r="JE10" s="0"/>
+      <c r="JF10" s="0"/>
+      <c r="JG10" s="0"/>
+      <c r="JH10" s="0"/>
+      <c r="JI10" s="0"/>
+      <c r="JJ10" s="0"/>
+      <c r="JK10" s="0"/>
+      <c r="JL10" s="0"/>
+      <c r="JM10" s="0"/>
+      <c r="JN10" s="0"/>
+      <c r="JO10" s="0"/>
+      <c r="JP10" s="0"/>
+      <c r="JQ10" s="0"/>
+      <c r="JR10" s="0"/>
+      <c r="JS10" s="0"/>
+      <c r="JT10" s="0"/>
+      <c r="JU10" s="0"/>
+      <c r="JV10" s="0"/>
+      <c r="JW10" s="0"/>
+      <c r="JX10" s="0"/>
+      <c r="JY10" s="0"/>
+      <c r="JZ10" s="0"/>
+      <c r="KA10" s="0"/>
+      <c r="KB10" s="0"/>
+      <c r="KC10" s="0"/>
+      <c r="KD10" s="0"/>
+      <c r="KE10" s="0"/>
+      <c r="KF10" s="0"/>
+      <c r="KG10" s="0"/>
+      <c r="KH10" s="0"/>
+      <c r="KI10" s="0"/>
+      <c r="KJ10" s="0"/>
+      <c r="KK10" s="0"/>
+      <c r="KL10" s="0"/>
+      <c r="KM10" s="0"/>
+      <c r="KN10" s="0"/>
+      <c r="KO10" s="0"/>
+      <c r="KP10" s="0"/>
+      <c r="KQ10" s="0"/>
+      <c r="KR10" s="0"/>
+      <c r="KS10" s="0"/>
+      <c r="KT10" s="0"/>
+      <c r="KU10" s="0"/>
+      <c r="KV10" s="0"/>
+      <c r="KW10" s="0"/>
+      <c r="KX10" s="0"/>
+      <c r="KY10" s="0"/>
+      <c r="KZ10" s="0"/>
+      <c r="LA10" s="0"/>
+      <c r="LB10" s="0"/>
+      <c r="LC10" s="0"/>
+      <c r="LD10" s="0"/>
+      <c r="LE10" s="0"/>
+      <c r="LF10" s="0"/>
+      <c r="LG10" s="0"/>
+      <c r="LH10" s="0"/>
+      <c r="LI10" s="0"/>
+      <c r="LJ10" s="0"/>
+      <c r="LK10" s="0"/>
+      <c r="LL10" s="0"/>
+      <c r="LM10" s="0"/>
+      <c r="LN10" s="0"/>
+      <c r="LO10" s="0"/>
+      <c r="LP10" s="0"/>
+      <c r="LQ10" s="0"/>
+      <c r="LR10" s="0"/>
+      <c r="LS10" s="0"/>
+      <c r="LT10" s="0"/>
+      <c r="LU10" s="0"/>
+      <c r="LV10" s="0"/>
+      <c r="LW10" s="0"/>
+      <c r="LX10" s="0"/>
+      <c r="LY10" s="0"/>
+      <c r="LZ10" s="0"/>
+      <c r="MA10" s="0"/>
+      <c r="MB10" s="0"/>
+      <c r="MC10" s="0"/>
+      <c r="MD10" s="0"/>
+      <c r="ME10" s="0"/>
+      <c r="MF10" s="0"/>
+      <c r="MG10" s="0"/>
+      <c r="MH10" s="0"/>
+      <c r="MI10" s="0"/>
+      <c r="MJ10" s="0"/>
+      <c r="MK10" s="0"/>
+      <c r="ML10" s="0"/>
+      <c r="MM10" s="0"/>
+      <c r="MN10" s="0"/>
+      <c r="MO10" s="0"/>
+      <c r="MP10" s="0"/>
+      <c r="MQ10" s="0"/>
+      <c r="MR10" s="0"/>
+      <c r="MS10" s="0"/>
+      <c r="MT10" s="0"/>
+      <c r="MU10" s="0"/>
+      <c r="MV10" s="0"/>
+      <c r="MW10" s="0"/>
+      <c r="MX10" s="0"/>
+      <c r="MY10" s="0"/>
+      <c r="MZ10" s="0"/>
+      <c r="NA10" s="0"/>
+      <c r="NB10" s="0"/>
+      <c r="NC10" s="0"/>
+      <c r="ND10" s="0"/>
+      <c r="NE10" s="0"/>
+      <c r="NF10" s="0"/>
+      <c r="NG10" s="0"/>
+      <c r="NH10" s="0"/>
+      <c r="NI10" s="0"/>
+      <c r="NJ10" s="0"/>
+      <c r="NK10" s="0"/>
+      <c r="NL10" s="0"/>
+      <c r="NM10" s="0"/>
+      <c r="NN10" s="0"/>
+      <c r="NO10" s="0"/>
+      <c r="NP10" s="0"/>
+      <c r="NQ10" s="0"/>
+      <c r="NR10" s="0"/>
+      <c r="NS10" s="0"/>
+      <c r="NT10" s="0"/>
+      <c r="NU10" s="0"/>
+      <c r="NV10" s="0"/>
+      <c r="NW10" s="0"/>
+      <c r="NX10" s="0"/>
+      <c r="NY10" s="0"/>
+      <c r="NZ10" s="0"/>
+      <c r="OA10" s="0"/>
+      <c r="OB10" s="0"/>
+      <c r="OC10" s="0"/>
+      <c r="OD10" s="0"/>
+      <c r="OE10" s="0"/>
+      <c r="OF10" s="0"/>
+      <c r="OG10" s="0"/>
+      <c r="OH10" s="0"/>
+      <c r="OI10" s="0"/>
+      <c r="OJ10" s="0"/>
+      <c r="OK10" s="0"/>
+      <c r="OL10" s="0"/>
+      <c r="OM10" s="0"/>
+      <c r="ON10" s="0"/>
+      <c r="OO10" s="0"/>
+      <c r="OP10" s="0"/>
+      <c r="OQ10" s="0"/>
+      <c r="OR10" s="0"/>
+      <c r="OS10" s="0"/>
+      <c r="OT10" s="0"/>
+      <c r="OU10" s="0"/>
+      <c r="OV10" s="0"/>
+      <c r="OW10" s="0"/>
+      <c r="OX10" s="0"/>
+      <c r="OY10" s="0"/>
+      <c r="OZ10" s="0"/>
+      <c r="PA10" s="0"/>
+      <c r="PB10" s="0"/>
+      <c r="PC10" s="0"/>
+      <c r="PD10" s="0"/>
+      <c r="PE10" s="0"/>
+      <c r="PF10" s="0"/>
+      <c r="PG10" s="0"/>
+      <c r="PH10" s="0"/>
+      <c r="PI10" s="0"/>
+      <c r="PJ10" s="0"/>
+      <c r="PK10" s="0"/>
+      <c r="PL10" s="0"/>
+      <c r="PM10" s="0"/>
+      <c r="PN10" s="0"/>
+      <c r="PO10" s="0"/>
+      <c r="PP10" s="0"/>
+      <c r="PQ10" s="0"/>
+      <c r="PR10" s="0"/>
+      <c r="PS10" s="0"/>
+      <c r="PT10" s="0"/>
+      <c r="PU10" s="0"/>
+      <c r="PV10" s="0"/>
+      <c r="PW10" s="0"/>
+      <c r="PX10" s="0"/>
+      <c r="PY10" s="0"/>
+      <c r="PZ10" s="0"/>
+      <c r="QA10" s="0"/>
+      <c r="QB10" s="0"/>
+      <c r="QC10" s="0"/>
+      <c r="QD10" s="0"/>
+      <c r="QE10" s="0"/>
+      <c r="QF10" s="0"/>
+      <c r="QG10" s="0"/>
+      <c r="QH10" s="0"/>
+      <c r="QI10" s="0"/>
+      <c r="QJ10" s="0"/>
+      <c r="QK10" s="0"/>
+      <c r="QL10" s="0"/>
+      <c r="QM10" s="0"/>
+      <c r="QN10" s="0"/>
+      <c r="QO10" s="0"/>
+      <c r="QP10" s="0"/>
+      <c r="QQ10" s="0"/>
+      <c r="QR10" s="0"/>
+      <c r="QS10" s="0"/>
+      <c r="QT10" s="0"/>
+      <c r="QU10" s="0"/>
+      <c r="QV10" s="0"/>
+      <c r="QW10" s="0"/>
+      <c r="QX10" s="0"/>
+      <c r="QY10" s="0"/>
+      <c r="QZ10" s="0"/>
+      <c r="RA10" s="0"/>
+      <c r="RB10" s="0"/>
+      <c r="RC10" s="0"/>
+      <c r="RD10" s="0"/>
+      <c r="RE10" s="0"/>
+      <c r="RF10" s="0"/>
+      <c r="RG10" s="0"/>
+      <c r="RH10" s="0"/>
+      <c r="RI10" s="0"/>
+      <c r="RJ10" s="0"/>
+      <c r="RK10" s="0"/>
+      <c r="RL10" s="0"/>
+      <c r="RM10" s="0"/>
+      <c r="RN10" s="0"/>
+      <c r="RO10" s="0"/>
+      <c r="RP10" s="0"/>
+      <c r="RQ10" s="0"/>
+      <c r="RR10" s="0"/>
+      <c r="RS10" s="0"/>
+      <c r="RT10" s="0"/>
+      <c r="RU10" s="0"/>
+      <c r="RV10" s="0"/>
+      <c r="RW10" s="0"/>
+      <c r="RX10" s="0"/>
+      <c r="RY10" s="0"/>
+      <c r="RZ10" s="0"/>
+      <c r="SA10" s="0"/>
+      <c r="SB10" s="0"/>
+      <c r="SC10" s="0"/>
+      <c r="SD10" s="0"/>
+      <c r="SE10" s="0"/>
+      <c r="SF10" s="0"/>
+      <c r="SG10" s="0"/>
+      <c r="SH10" s="0"/>
+      <c r="SI10" s="0"/>
+      <c r="SJ10" s="0"/>
+      <c r="SK10" s="0"/>
+      <c r="SL10" s="0"/>
+      <c r="SM10" s="0"/>
+      <c r="SN10" s="0"/>
+      <c r="SO10" s="0"/>
+      <c r="SP10" s="0"/>
+      <c r="SQ10" s="0"/>
+      <c r="SR10" s="0"/>
+      <c r="SS10" s="0"/>
+      <c r="ST10" s="0"/>
+      <c r="SU10" s="0"/>
+      <c r="SV10" s="0"/>
+      <c r="SW10" s="0"/>
+      <c r="SX10" s="0"/>
+      <c r="SY10" s="0"/>
+      <c r="SZ10" s="0"/>
+      <c r="TA10" s="0"/>
+      <c r="TB10" s="0"/>
+      <c r="TC10" s="0"/>
+      <c r="TD10" s="0"/>
+      <c r="TE10" s="0"/>
+      <c r="TF10" s="0"/>
+      <c r="TG10" s="0"/>
+      <c r="TH10" s="0"/>
+      <c r="TI10" s="0"/>
+      <c r="TJ10" s="0"/>
+      <c r="TK10" s="0"/>
+      <c r="TL10" s="0"/>
+      <c r="TM10" s="0"/>
+      <c r="TN10" s="0"/>
+      <c r="TO10" s="0"/>
+      <c r="TP10" s="0"/>
+      <c r="TQ10" s="0"/>
+      <c r="TR10" s="0"/>
+      <c r="TS10" s="0"/>
+      <c r="TT10" s="0"/>
+      <c r="TU10" s="0"/>
+      <c r="TV10" s="0"/>
+      <c r="TW10" s="0"/>
+      <c r="TX10" s="0"/>
+      <c r="TY10" s="0"/>
+      <c r="TZ10" s="0"/>
+      <c r="UA10" s="0"/>
+      <c r="UB10" s="0"/>
+      <c r="UC10" s="0"/>
+      <c r="UD10" s="0"/>
+      <c r="UE10" s="0"/>
+      <c r="UF10" s="0"/>
+      <c r="UG10" s="0"/>
+      <c r="UH10" s="0"/>
+      <c r="UI10" s="0"/>
+      <c r="UJ10" s="0"/>
+      <c r="UK10" s="0"/>
+      <c r="UL10" s="0"/>
+      <c r="UM10" s="0"/>
+      <c r="UN10" s="0"/>
+      <c r="UO10" s="0"/>
+      <c r="UP10" s="0"/>
+      <c r="UQ10" s="0"/>
+      <c r="UR10" s="0"/>
+      <c r="US10" s="0"/>
+      <c r="UT10" s="0"/>
+      <c r="UU10" s="0"/>
+      <c r="UV10" s="0"/>
+      <c r="UW10" s="0"/>
+      <c r="UX10" s="0"/>
+      <c r="UY10" s="0"/>
+      <c r="UZ10" s="0"/>
+      <c r="VA10" s="0"/>
+      <c r="VB10" s="0"/>
+      <c r="VC10" s="0"/>
+      <c r="VD10" s="0"/>
+      <c r="VE10" s="0"/>
+      <c r="VF10" s="0"/>
+      <c r="VG10" s="0"/>
+      <c r="VH10" s="0"/>
+      <c r="VI10" s="0"/>
+      <c r="VJ10" s="0"/>
+      <c r="VK10" s="0"/>
+      <c r="VL10" s="0"/>
+      <c r="VM10" s="0"/>
+      <c r="VN10" s="0"/>
+      <c r="VO10" s="0"/>
+      <c r="VP10" s="0"/>
+      <c r="VQ10" s="0"/>
+      <c r="VR10" s="0"/>
+      <c r="VS10" s="0"/>
+      <c r="VT10" s="0"/>
+      <c r="VU10" s="0"/>
+      <c r="VV10" s="0"/>
+      <c r="VW10" s="0"/>
+      <c r="VX10" s="0"/>
+      <c r="VY10" s="0"/>
+      <c r="VZ10" s="0"/>
+      <c r="WA10" s="0"/>
+      <c r="WB10" s="0"/>
+      <c r="WC10" s="0"/>
+      <c r="WD10" s="0"/>
+      <c r="WE10" s="0"/>
+      <c r="WF10" s="0"/>
+      <c r="WG10" s="0"/>
+      <c r="WH10" s="0"/>
+      <c r="WI10" s="0"/>
+      <c r="WJ10" s="0"/>
+      <c r="WK10" s="0"/>
+      <c r="WL10" s="0"/>
+      <c r="WM10" s="0"/>
+      <c r="WN10" s="0"/>
+      <c r="WO10" s="0"/>
+      <c r="WP10" s="0"/>
+      <c r="WQ10" s="0"/>
+      <c r="WR10" s="0"/>
+      <c r="WS10" s="0"/>
+      <c r="WT10" s="0"/>
+      <c r="WU10" s="0"/>
+      <c r="WV10" s="0"/>
+      <c r="WW10" s="0"/>
+      <c r="WX10" s="0"/>
+      <c r="WY10" s="0"/>
+      <c r="WZ10" s="0"/>
+      <c r="XA10" s="0"/>
+      <c r="XB10" s="0"/>
+      <c r="XC10" s="0"/>
+      <c r="XD10" s="0"/>
+      <c r="XE10" s="0"/>
+      <c r="XF10" s="0"/>
+      <c r="XG10" s="0"/>
+      <c r="XH10" s="0"/>
+      <c r="XI10" s="0"/>
+      <c r="XJ10" s="0"/>
+      <c r="XK10" s="0"/>
+      <c r="XL10" s="0"/>
+      <c r="XM10" s="0"/>
+      <c r="XN10" s="0"/>
+      <c r="XO10" s="0"/>
+      <c r="XP10" s="0"/>
+      <c r="XQ10" s="0"/>
+      <c r="XR10" s="0"/>
+      <c r="XS10" s="0"/>
+      <c r="XT10" s="0"/>
+      <c r="XU10" s="0"/>
+      <c r="XV10" s="0"/>
+      <c r="XW10" s="0"/>
+      <c r="XX10" s="0"/>
+      <c r="XY10" s="0"/>
+      <c r="XZ10" s="0"/>
+      <c r="YA10" s="0"/>
+      <c r="YB10" s="0"/>
+      <c r="YC10" s="0"/>
+      <c r="YD10" s="0"/>
+      <c r="YE10" s="0"/>
+      <c r="YF10" s="0"/>
+      <c r="YG10" s="0"/>
+      <c r="YH10" s="0"/>
+      <c r="YI10" s="0"/>
+      <c r="YJ10" s="0"/>
+      <c r="YK10" s="0"/>
+      <c r="YL10" s="0"/>
+      <c r="YM10" s="0"/>
+      <c r="YN10" s="0"/>
+      <c r="YO10" s="0"/>
+      <c r="YP10" s="0"/>
+      <c r="YQ10" s="0"/>
+      <c r="YR10" s="0"/>
+      <c r="YS10" s="0"/>
+      <c r="YT10" s="0"/>
+      <c r="YU10" s="0"/>
+      <c r="YV10" s="0"/>
+      <c r="YW10" s="0"/>
+      <c r="YX10" s="0"/>
+      <c r="YY10" s="0"/>
+      <c r="YZ10" s="0"/>
+      <c r="ZA10" s="0"/>
+      <c r="ZB10" s="0"/>
+      <c r="ZC10" s="0"/>
+      <c r="ZD10" s="0"/>
+      <c r="ZE10" s="0"/>
+      <c r="ZF10" s="0"/>
+      <c r="ZG10" s="0"/>
+      <c r="ZH10" s="0"/>
+      <c r="ZI10" s="0"/>
+      <c r="ZJ10" s="0"/>
+      <c r="ZK10" s="0"/>
+      <c r="ZL10" s="0"/>
+      <c r="ZM10" s="0"/>
+      <c r="ZN10" s="0"/>
+      <c r="ZO10" s="0"/>
+      <c r="ZP10" s="0"/>
+      <c r="ZQ10" s="0"/>
+      <c r="ZR10" s="0"/>
+      <c r="ZS10" s="0"/>
+      <c r="ZT10" s="0"/>
+      <c r="ZU10" s="0"/>
+      <c r="ZV10" s="0"/>
+      <c r="ZW10" s="0"/>
+      <c r="ZX10" s="0"/>
+      <c r="ZY10" s="0"/>
+      <c r="ZZ10" s="0"/>
+      <c r="AAA10" s="0"/>
+      <c r="AAB10" s="0"/>
+      <c r="AAC10" s="0"/>
+      <c r="AAD10" s="0"/>
+      <c r="AAE10" s="0"/>
+      <c r="AAF10" s="0"/>
+      <c r="AAG10" s="0"/>
+      <c r="AAH10" s="0"/>
+      <c r="AAI10" s="0"/>
+      <c r="AAJ10" s="0"/>
+      <c r="AAK10" s="0"/>
+      <c r="AAL10" s="0"/>
+      <c r="AAM10" s="0"/>
+      <c r="AAN10" s="0"/>
+      <c r="AAO10" s="0"/>
+      <c r="AAP10" s="0"/>
+      <c r="AAQ10" s="0"/>
+      <c r="AAR10" s="0"/>
+      <c r="AAS10" s="0"/>
+      <c r="AAT10" s="0"/>
+      <c r="AAU10" s="0"/>
+      <c r="AAV10" s="0"/>
+      <c r="AAW10" s="0"/>
+      <c r="AAX10" s="0"/>
+      <c r="AAY10" s="0"/>
+      <c r="AAZ10" s="0"/>
+      <c r="ABA10" s="0"/>
+      <c r="ABB10" s="0"/>
+      <c r="ABC10" s="0"/>
+      <c r="ABD10" s="0"/>
+      <c r="ABE10" s="0"/>
+      <c r="ABF10" s="0"/>
+      <c r="ABG10" s="0"/>
+      <c r="ABH10" s="0"/>
+      <c r="ABI10" s="0"/>
+      <c r="ABJ10" s="0"/>
+      <c r="ABK10" s="0"/>
+      <c r="ABL10" s="0"/>
+      <c r="ABM10" s="0"/>
+      <c r="ABN10" s="0"/>
+      <c r="ABO10" s="0"/>
+      <c r="ABP10" s="0"/>
+      <c r="ABQ10" s="0"/>
+      <c r="ABR10" s="0"/>
+      <c r="ABS10" s="0"/>
+      <c r="ABT10" s="0"/>
+      <c r="ABU10" s="0"/>
+      <c r="ABV10" s="0"/>
+      <c r="ABW10" s="0"/>
+      <c r="ABX10" s="0"/>
+      <c r="ABY10" s="0"/>
+      <c r="ABZ10" s="0"/>
+      <c r="ACA10" s="0"/>
+      <c r="ACB10" s="0"/>
+      <c r="ACC10" s="0"/>
+      <c r="ACD10" s="0"/>
+      <c r="ACE10" s="0"/>
+      <c r="ACF10" s="0"/>
+      <c r="ACG10" s="0"/>
+      <c r="ACH10" s="0"/>
+      <c r="ACI10" s="0"/>
+      <c r="ACJ10" s="0"/>
+      <c r="ACK10" s="0"/>
+      <c r="ACL10" s="0"/>
+      <c r="ACM10" s="0"/>
+      <c r="ACN10" s="0"/>
+      <c r="ACO10" s="0"/>
+      <c r="ACP10" s="0"/>
+      <c r="ACQ10" s="0"/>
+      <c r="ACR10" s="0"/>
+      <c r="ACS10" s="0"/>
+      <c r="ACT10" s="0"/>
+      <c r="ACU10" s="0"/>
+      <c r="ACV10" s="0"/>
+      <c r="ACW10" s="0"/>
+      <c r="ACX10" s="0"/>
+      <c r="ACY10" s="0"/>
+      <c r="ACZ10" s="0"/>
+      <c r="ADA10" s="0"/>
+      <c r="ADB10" s="0"/>
+      <c r="ADC10" s="0"/>
+      <c r="ADD10" s="0"/>
+      <c r="ADE10" s="0"/>
+      <c r="ADF10" s="0"/>
+      <c r="ADG10" s="0"/>
+      <c r="ADH10" s="0"/>
+      <c r="ADI10" s="0"/>
+      <c r="ADJ10" s="0"/>
+      <c r="ADK10" s="0"/>
+      <c r="ADL10" s="0"/>
+      <c r="ADM10" s="0"/>
+      <c r="ADN10" s="0"/>
+      <c r="ADO10" s="0"/>
+      <c r="ADP10" s="0"/>
+      <c r="ADQ10" s="0"/>
+      <c r="ADR10" s="0"/>
+      <c r="ADS10" s="0"/>
+      <c r="ADT10" s="0"/>
+      <c r="ADU10" s="0"/>
+      <c r="ADV10" s="0"/>
+      <c r="ADW10" s="0"/>
+      <c r="ADX10" s="0"/>
+      <c r="ADY10" s="0"/>
+      <c r="ADZ10" s="0"/>
+      <c r="AEA10" s="0"/>
+      <c r="AEB10" s="0"/>
+      <c r="AEC10" s="0"/>
+      <c r="AED10" s="0"/>
+      <c r="AEE10" s="0"/>
+      <c r="AEF10" s="0"/>
+      <c r="AEG10" s="0"/>
+      <c r="AEH10" s="0"/>
+      <c r="AEI10" s="0"/>
+      <c r="AEJ10" s="0"/>
+      <c r="AEK10" s="0"/>
+      <c r="AEL10" s="0"/>
+      <c r="AEM10" s="0"/>
+      <c r="AEN10" s="0"/>
+      <c r="AEO10" s="0"/>
+      <c r="AEP10" s="0"/>
+      <c r="AEQ10" s="0"/>
+      <c r="AER10" s="0"/>
+      <c r="AES10" s="0"/>
+      <c r="AET10" s="0"/>
+      <c r="AEU10" s="0"/>
+      <c r="AEV10" s="0"/>
+      <c r="AEW10" s="0"/>
+      <c r="AEX10" s="0"/>
+      <c r="AEY10" s="0"/>
+      <c r="AEZ10" s="0"/>
+      <c r="AFA10" s="0"/>
+      <c r="AFB10" s="0"/>
+      <c r="AFC10" s="0"/>
+      <c r="AFD10" s="0"/>
+      <c r="AFE10" s="0"/>
+      <c r="AFF10" s="0"/>
+      <c r="AFG10" s="0"/>
+      <c r="AFH10" s="0"/>
+      <c r="AFI10" s="0"/>
+      <c r="AFJ10" s="0"/>
+      <c r="AFK10" s="0"/>
+      <c r="AFL10" s="0"/>
+      <c r="AFM10" s="0"/>
+      <c r="AFN10" s="0"/>
+      <c r="AFO10" s="0"/>
+      <c r="AFP10" s="0"/>
+      <c r="AFQ10" s="0"/>
+      <c r="AFR10" s="0"/>
+      <c r="AFS10" s="0"/>
+      <c r="AFT10" s="0"/>
+      <c r="AFU10" s="0"/>
+      <c r="AFV10" s="0"/>
+      <c r="AFW10" s="0"/>
+      <c r="AFX10" s="0"/>
+      <c r="AFY10" s="0"/>
+      <c r="AFZ10" s="0"/>
+      <c r="AGA10" s="0"/>
+      <c r="AGB10" s="0"/>
+      <c r="AGC10" s="0"/>
+      <c r="AGD10" s="0"/>
+      <c r="AGE10" s="0"/>
+      <c r="AGF10" s="0"/>
+      <c r="AGG10" s="0"/>
+      <c r="AGH10" s="0"/>
+      <c r="AGI10" s="0"/>
+      <c r="AGJ10" s="0"/>
+      <c r="AGK10" s="0"/>
+      <c r="AGL10" s="0"/>
+      <c r="AGM10" s="0"/>
+      <c r="AGN10" s="0"/>
+      <c r="AGO10" s="0"/>
+      <c r="AGP10" s="0"/>
+      <c r="AGQ10" s="0"/>
+      <c r="AGR10" s="0"/>
+      <c r="AGS10" s="0"/>
+      <c r="AGT10" s="0"/>
+      <c r="AGU10" s="0"/>
+      <c r="AGV10" s="0"/>
+      <c r="AGW10" s="0"/>
+      <c r="AGX10" s="0"/>
+      <c r="AGY10" s="0"/>
+      <c r="AGZ10" s="0"/>
+      <c r="AHA10" s="0"/>
+      <c r="AHB10" s="0"/>
+      <c r="AHC10" s="0"/>
+      <c r="AHD10" s="0"/>
+      <c r="AHE10" s="0"/>
+      <c r="AHF10" s="0"/>
+      <c r="AHG10" s="0"/>
+      <c r="AHH10" s="0"/>
+      <c r="AHI10" s="0"/>
+      <c r="AHJ10" s="0"/>
+      <c r="AHK10" s="0"/>
+      <c r="AHL10" s="0"/>
+      <c r="AHM10" s="0"/>
+      <c r="AHN10" s="0"/>
+      <c r="AHO10" s="0"/>
+      <c r="AHP10" s="0"/>
+      <c r="AHQ10" s="0"/>
+      <c r="AHR10" s="0"/>
+      <c r="AHS10" s="0"/>
+      <c r="AHT10" s="0"/>
+      <c r="AHU10" s="0"/>
+      <c r="AHV10" s="0"/>
+      <c r="AHW10" s="0"/>
+      <c r="AHX10" s="0"/>
+      <c r="AHY10" s="0"/>
+      <c r="AHZ10" s="0"/>
+      <c r="AIA10" s="0"/>
+      <c r="AIB10" s="0"/>
+      <c r="AIC10" s="0"/>
+      <c r="AID10" s="0"/>
+      <c r="AIE10" s="0"/>
+      <c r="AIF10" s="0"/>
+      <c r="AIG10" s="0"/>
+      <c r="AIH10" s="0"/>
+      <c r="AII10" s="0"/>
+      <c r="AIJ10" s="0"/>
+      <c r="AIK10" s="0"/>
+      <c r="AIL10" s="0"/>
+      <c r="AIM10" s="0"/>
+      <c r="AIN10" s="0"/>
+      <c r="AIO10" s="0"/>
+      <c r="AIP10" s="0"/>
+      <c r="AIQ10" s="0"/>
+      <c r="AIR10" s="0"/>
+      <c r="AIS10" s="0"/>
+      <c r="AIT10" s="0"/>
+      <c r="AIU10" s="0"/>
+      <c r="AIV10" s="0"/>
+      <c r="AIW10" s="0"/>
+      <c r="AIX10" s="0"/>
+      <c r="AIY10" s="0"/>
+      <c r="AIZ10" s="0"/>
+      <c r="AJA10" s="0"/>
+      <c r="AJB10" s="0"/>
+      <c r="AJC10" s="0"/>
+      <c r="AJD10" s="0"/>
+      <c r="AJE10" s="0"/>
+      <c r="AJF10" s="0"/>
+      <c r="AJG10" s="0"/>
+      <c r="AJH10" s="0"/>
+      <c r="AJI10" s="0"/>
+      <c r="AJJ10" s="0"/>
+      <c r="AJK10" s="0"/>
+      <c r="AJL10" s="0"/>
+      <c r="AJM10" s="0"/>
+      <c r="AJN10" s="0"/>
+      <c r="AJO10" s="0"/>
+      <c r="AJP10" s="0"/>
+      <c r="AJQ10" s="0"/>
+      <c r="AJR10" s="0"/>
+      <c r="AJS10" s="0"/>
+      <c r="AJT10" s="0"/>
+      <c r="AJU10" s="0"/>
+      <c r="AJV10" s="0"/>
+      <c r="AJW10" s="0"/>
+      <c r="AJX10" s="0"/>
+      <c r="AJY10" s="0"/>
+      <c r="AJZ10" s="0"/>
+      <c r="AKA10" s="0"/>
+      <c r="AKB10" s="0"/>
+      <c r="AKC10" s="0"/>
+      <c r="AKD10" s="0"/>
+      <c r="AKE10" s="0"/>
+      <c r="AKF10" s="0"/>
+      <c r="AKG10" s="0"/>
+      <c r="AKH10" s="0"/>
+      <c r="AKI10" s="0"/>
+      <c r="AKJ10" s="0"/>
+      <c r="AKK10" s="0"/>
+      <c r="AKL10" s="0"/>
+      <c r="AKM10" s="0"/>
+      <c r="AKN10" s="0"/>
+      <c r="AKO10" s="0"/>
+      <c r="AKP10" s="0"/>
+      <c r="AKQ10" s="0"/>
+      <c r="AKR10" s="0"/>
+      <c r="AKS10" s="0"/>
+      <c r="AKT10" s="0"/>
+      <c r="AKU10" s="0"/>
+      <c r="AKV10" s="0"/>
+      <c r="AKW10" s="0"/>
+      <c r="AKX10" s="0"/>
+      <c r="AKY10" s="0"/>
+      <c r="AKZ10" s="0"/>
+      <c r="ALA10" s="0"/>
+      <c r="ALB10" s="0"/>
+      <c r="ALC10" s="0"/>
+      <c r="ALD10" s="0"/>
+      <c r="ALE10" s="0"/>
+      <c r="ALF10" s="0"/>
+      <c r="ALG10" s="0"/>
+      <c r="ALH10" s="0"/>
+      <c r="ALI10" s="0"/>
+      <c r="ALJ10" s="0"/>
+      <c r="ALK10" s="0"/>
+      <c r="ALL10" s="0"/>
+      <c r="ALM10" s="0"/>
+      <c r="ALN10" s="0"/>
+      <c r="ALO10" s="0"/>
+      <c r="ALP10" s="0"/>
+      <c r="ALQ10" s="0"/>
+      <c r="ALR10" s="0"/>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="1" t="s">
-        <v>34</v>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="I11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
+      <c r="IX11" s="0"/>
+      <c r="IY11" s="0"/>
+      <c r="IZ11" s="0"/>
+      <c r="JA11" s="0"/>
+      <c r="JB11" s="0"/>
+      <c r="JC11" s="0"/>
+      <c r="JD11" s="0"/>
+      <c r="JE11" s="0"/>
+      <c r="JF11" s="0"/>
+      <c r="JG11" s="0"/>
+      <c r="JH11" s="0"/>
+      <c r="JI11" s="0"/>
+      <c r="JJ11" s="0"/>
+      <c r="JK11" s="0"/>
+      <c r="JL11" s="0"/>
+      <c r="JM11" s="0"/>
+      <c r="JN11" s="0"/>
+      <c r="JO11" s="0"/>
+      <c r="JP11" s="0"/>
+      <c r="JQ11" s="0"/>
+      <c r="JR11" s="0"/>
+      <c r="JS11" s="0"/>
+      <c r="JT11" s="0"/>
+      <c r="JU11" s="0"/>
+      <c r="JV11" s="0"/>
+      <c r="JW11" s="0"/>
+      <c r="JX11" s="0"/>
+      <c r="JY11" s="0"/>
+      <c r="JZ11" s="0"/>
+      <c r="KA11" s="0"/>
+      <c r="KB11" s="0"/>
+      <c r="KC11" s="0"/>
+      <c r="KD11" s="0"/>
+      <c r="KE11" s="0"/>
+      <c r="KF11" s="0"/>
+      <c r="KG11" s="0"/>
+      <c r="KH11" s="0"/>
+      <c r="KI11" s="0"/>
+      <c r="KJ11" s="0"/>
+      <c r="KK11" s="0"/>
+      <c r="KL11" s="0"/>
+      <c r="KM11" s="0"/>
+      <c r="KN11" s="0"/>
+      <c r="KO11" s="0"/>
+      <c r="KP11" s="0"/>
+      <c r="KQ11" s="0"/>
+      <c r="KR11" s="0"/>
+      <c r="KS11" s="0"/>
+      <c r="KT11" s="0"/>
+      <c r="KU11" s="0"/>
+      <c r="KV11" s="0"/>
+      <c r="KW11" s="0"/>
+      <c r="KX11" s="0"/>
+      <c r="KY11" s="0"/>
+      <c r="KZ11" s="0"/>
+      <c r="LA11" s="0"/>
+      <c r="LB11" s="0"/>
+      <c r="LC11" s="0"/>
+      <c r="LD11" s="0"/>
+      <c r="LE11" s="0"/>
+      <c r="LF11" s="0"/>
+      <c r="LG11" s="0"/>
+      <c r="LH11" s="0"/>
+      <c r="LI11" s="0"/>
+      <c r="LJ11" s="0"/>
+      <c r="LK11" s="0"/>
+      <c r="LL11" s="0"/>
+      <c r="LM11" s="0"/>
+      <c r="LN11" s="0"/>
+      <c r="LO11" s="0"/>
+      <c r="LP11" s="0"/>
+      <c r="LQ11" s="0"/>
+      <c r="LR11" s="0"/>
+      <c r="LS11" s="0"/>
+      <c r="LT11" s="0"/>
+      <c r="LU11" s="0"/>
+      <c r="LV11" s="0"/>
+      <c r="LW11" s="0"/>
+      <c r="LX11" s="0"/>
+      <c r="LY11" s="0"/>
+      <c r="LZ11" s="0"/>
+      <c r="MA11" s="0"/>
+      <c r="MB11" s="0"/>
+      <c r="MC11" s="0"/>
+      <c r="MD11" s="0"/>
+      <c r="ME11" s="0"/>
+      <c r="MF11" s="0"/>
+      <c r="MG11" s="0"/>
+      <c r="MH11" s="0"/>
+      <c r="MI11" s="0"/>
+      <c r="MJ11" s="0"/>
+      <c r="MK11" s="0"/>
+      <c r="ML11" s="0"/>
+      <c r="MM11" s="0"/>
+      <c r="MN11" s="0"/>
+      <c r="MO11" s="0"/>
+      <c r="MP11" s="0"/>
+      <c r="MQ11" s="0"/>
+      <c r="MR11" s="0"/>
+      <c r="MS11" s="0"/>
+      <c r="MT11" s="0"/>
+      <c r="MU11" s="0"/>
+      <c r="MV11" s="0"/>
+      <c r="MW11" s="0"/>
+      <c r="MX11" s="0"/>
+      <c r="MY11" s="0"/>
+      <c r="MZ11" s="0"/>
+      <c r="NA11" s="0"/>
+      <c r="NB11" s="0"/>
+      <c r="NC11" s="0"/>
+      <c r="ND11" s="0"/>
+      <c r="NE11" s="0"/>
+      <c r="NF11" s="0"/>
+      <c r="NG11" s="0"/>
+      <c r="NH11" s="0"/>
+      <c r="NI11" s="0"/>
+      <c r="NJ11" s="0"/>
+      <c r="NK11" s="0"/>
+      <c r="NL11" s="0"/>
+      <c r="NM11" s="0"/>
+      <c r="NN11" s="0"/>
+      <c r="NO11" s="0"/>
+      <c r="NP11" s="0"/>
+      <c r="NQ11" s="0"/>
+      <c r="NR11" s="0"/>
+      <c r="NS11" s="0"/>
+      <c r="NT11" s="0"/>
+      <c r="NU11" s="0"/>
+      <c r="NV11" s="0"/>
+      <c r="NW11" s="0"/>
+      <c r="NX11" s="0"/>
+      <c r="NY11" s="0"/>
+      <c r="NZ11" s="0"/>
+      <c r="OA11" s="0"/>
+      <c r="OB11" s="0"/>
+      <c r="OC11" s="0"/>
+      <c r="OD11" s="0"/>
+      <c r="OE11" s="0"/>
+      <c r="OF11" s="0"/>
+      <c r="OG11" s="0"/>
+      <c r="OH11" s="0"/>
+      <c r="OI11" s="0"/>
+      <c r="OJ11" s="0"/>
+      <c r="OK11" s="0"/>
+      <c r="OL11" s="0"/>
+      <c r="OM11" s="0"/>
+      <c r="ON11" s="0"/>
+      <c r="OO11" s="0"/>
+      <c r="OP11" s="0"/>
+      <c r="OQ11" s="0"/>
+      <c r="OR11" s="0"/>
+      <c r="OS11" s="0"/>
+      <c r="OT11" s="0"/>
+      <c r="OU11" s="0"/>
+      <c r="OV11" s="0"/>
+      <c r="OW11" s="0"/>
+      <c r="OX11" s="0"/>
+      <c r="OY11" s="0"/>
+      <c r="OZ11" s="0"/>
+      <c r="PA11" s="0"/>
+      <c r="PB11" s="0"/>
+      <c r="PC11" s="0"/>
+      <c r="PD11" s="0"/>
+      <c r="PE11" s="0"/>
+      <c r="PF11" s="0"/>
+      <c r="PG11" s="0"/>
+      <c r="PH11" s="0"/>
+      <c r="PI11" s="0"/>
+      <c r="PJ11" s="0"/>
+      <c r="PK11" s="0"/>
+      <c r="PL11" s="0"/>
+      <c r="PM11" s="0"/>
+      <c r="PN11" s="0"/>
+      <c r="PO11" s="0"/>
+      <c r="PP11" s="0"/>
+      <c r="PQ11" s="0"/>
+      <c r="PR11" s="0"/>
+      <c r="PS11" s="0"/>
+      <c r="PT11" s="0"/>
+      <c r="PU11" s="0"/>
+      <c r="PV11" s="0"/>
+      <c r="PW11" s="0"/>
+      <c r="PX11" s="0"/>
+      <c r="PY11" s="0"/>
+      <c r="PZ11" s="0"/>
+      <c r="QA11" s="0"/>
+      <c r="QB11" s="0"/>
+      <c r="QC11" s="0"/>
+      <c r="QD11" s="0"/>
+      <c r="QE11" s="0"/>
+      <c r="QF11" s="0"/>
+      <c r="QG11" s="0"/>
+      <c r="QH11" s="0"/>
+      <c r="QI11" s="0"/>
+      <c r="QJ11" s="0"/>
+      <c r="QK11" s="0"/>
+      <c r="QL11" s="0"/>
+      <c r="QM11" s="0"/>
+      <c r="QN11" s="0"/>
+      <c r="QO11" s="0"/>
+      <c r="QP11" s="0"/>
+      <c r="QQ11" s="0"/>
+      <c r="QR11" s="0"/>
+      <c r="QS11" s="0"/>
+      <c r="QT11" s="0"/>
+      <c r="QU11" s="0"/>
+      <c r="QV11" s="0"/>
+      <c r="QW11" s="0"/>
+      <c r="QX11" s="0"/>
+      <c r="QY11" s="0"/>
+      <c r="QZ11" s="0"/>
+      <c r="RA11" s="0"/>
+      <c r="RB11" s="0"/>
+      <c r="RC11" s="0"/>
+      <c r="RD11" s="0"/>
+      <c r="RE11" s="0"/>
+      <c r="RF11" s="0"/>
+      <c r="RG11" s="0"/>
+      <c r="RH11" s="0"/>
+      <c r="RI11" s="0"/>
+      <c r="RJ11" s="0"/>
+      <c r="RK11" s="0"/>
+      <c r="RL11" s="0"/>
+      <c r="RM11" s="0"/>
+      <c r="RN11" s="0"/>
+      <c r="RO11" s="0"/>
+      <c r="RP11" s="0"/>
+      <c r="RQ11" s="0"/>
+      <c r="RR11" s="0"/>
+      <c r="RS11" s="0"/>
+      <c r="RT11" s="0"/>
+      <c r="RU11" s="0"/>
+      <c r="RV11" s="0"/>
+      <c r="RW11" s="0"/>
+      <c r="RX11" s="0"/>
+      <c r="RY11" s="0"/>
+      <c r="RZ11" s="0"/>
+      <c r="SA11" s="0"/>
+      <c r="SB11" s="0"/>
+      <c r="SC11" s="0"/>
+      <c r="SD11" s="0"/>
+      <c r="SE11" s="0"/>
+      <c r="SF11" s="0"/>
+      <c r="SG11" s="0"/>
+      <c r="SH11" s="0"/>
+      <c r="SI11" s="0"/>
+      <c r="SJ11" s="0"/>
+      <c r="SK11" s="0"/>
+      <c r="SL11" s="0"/>
+      <c r="SM11" s="0"/>
+      <c r="SN11" s="0"/>
+      <c r="SO11" s="0"/>
+      <c r="SP11" s="0"/>
+      <c r="SQ11" s="0"/>
+      <c r="SR11" s="0"/>
+      <c r="SS11" s="0"/>
+      <c r="ST11" s="0"/>
+      <c r="SU11" s="0"/>
+      <c r="SV11" s="0"/>
+      <c r="SW11" s="0"/>
+      <c r="SX11" s="0"/>
+      <c r="SY11" s="0"/>
+      <c r="SZ11" s="0"/>
+      <c r="TA11" s="0"/>
+      <c r="TB11" s="0"/>
+      <c r="TC11" s="0"/>
+      <c r="TD11" s="0"/>
+      <c r="TE11" s="0"/>
+      <c r="TF11" s="0"/>
+      <c r="TG11" s="0"/>
+      <c r="TH11" s="0"/>
+      <c r="TI11" s="0"/>
+      <c r="TJ11" s="0"/>
+      <c r="TK11" s="0"/>
+      <c r="TL11" s="0"/>
+      <c r="TM11" s="0"/>
+      <c r="TN11" s="0"/>
+      <c r="TO11" s="0"/>
+      <c r="TP11" s="0"/>
+      <c r="TQ11" s="0"/>
+      <c r="TR11" s="0"/>
+      <c r="TS11" s="0"/>
+      <c r="TT11" s="0"/>
+      <c r="TU11" s="0"/>
+      <c r="TV11" s="0"/>
+      <c r="TW11" s="0"/>
+      <c r="TX11" s="0"/>
+      <c r="TY11" s="0"/>
+      <c r="TZ11" s="0"/>
+      <c r="UA11" s="0"/>
+      <c r="UB11" s="0"/>
+      <c r="UC11" s="0"/>
+      <c r="UD11" s="0"/>
+      <c r="UE11" s="0"/>
+      <c r="UF11" s="0"/>
+      <c r="UG11" s="0"/>
+      <c r="UH11" s="0"/>
+      <c r="UI11" s="0"/>
+      <c r="UJ11" s="0"/>
+      <c r="UK11" s="0"/>
+      <c r="UL11" s="0"/>
+      <c r="UM11" s="0"/>
+      <c r="UN11" s="0"/>
+      <c r="UO11" s="0"/>
+      <c r="UP11" s="0"/>
+      <c r="UQ11" s="0"/>
+      <c r="UR11" s="0"/>
+      <c r="US11" s="0"/>
+      <c r="UT11" s="0"/>
+      <c r="UU11" s="0"/>
+      <c r="UV11" s="0"/>
+      <c r="UW11" s="0"/>
+      <c r="UX11" s="0"/>
+      <c r="UY11" s="0"/>
+      <c r="UZ11" s="0"/>
+      <c r="VA11" s="0"/>
+      <c r="VB11" s="0"/>
+      <c r="VC11" s="0"/>
+      <c r="VD11" s="0"/>
+      <c r="VE11" s="0"/>
+      <c r="VF11" s="0"/>
+      <c r="VG11" s="0"/>
+      <c r="VH11" s="0"/>
+      <c r="VI11" s="0"/>
+      <c r="VJ11" s="0"/>
+      <c r="VK11" s="0"/>
+      <c r="VL11" s="0"/>
+      <c r="VM11" s="0"/>
+      <c r="VN11" s="0"/>
+      <c r="VO11" s="0"/>
+      <c r="VP11" s="0"/>
+      <c r="VQ11" s="0"/>
+      <c r="VR11" s="0"/>
+      <c r="VS11" s="0"/>
+      <c r="VT11" s="0"/>
+      <c r="VU11" s="0"/>
+      <c r="VV11" s="0"/>
+      <c r="VW11" s="0"/>
+      <c r="VX11" s="0"/>
+      <c r="VY11" s="0"/>
+      <c r="VZ11" s="0"/>
+      <c r="WA11" s="0"/>
+      <c r="WB11" s="0"/>
+      <c r="WC11" s="0"/>
+      <c r="WD11" s="0"/>
+      <c r="WE11" s="0"/>
+      <c r="WF11" s="0"/>
+      <c r="WG11" s="0"/>
+      <c r="WH11" s="0"/>
+      <c r="WI11" s="0"/>
+      <c r="WJ11" s="0"/>
+      <c r="WK11" s="0"/>
+      <c r="WL11" s="0"/>
+      <c r="WM11" s="0"/>
+      <c r="WN11" s="0"/>
+      <c r="WO11" s="0"/>
+      <c r="WP11" s="0"/>
+      <c r="WQ11" s="0"/>
+      <c r="WR11" s="0"/>
+      <c r="WS11" s="0"/>
+      <c r="WT11" s="0"/>
+      <c r="WU11" s="0"/>
+      <c r="WV11" s="0"/>
+      <c r="WW11" s="0"/>
+      <c r="WX11" s="0"/>
+      <c r="WY11" s="0"/>
+      <c r="WZ11" s="0"/>
+      <c r="XA11" s="0"/>
+      <c r="XB11" s="0"/>
+      <c r="XC11" s="0"/>
+      <c r="XD11" s="0"/>
+      <c r="XE11" s="0"/>
+      <c r="XF11" s="0"/>
+      <c r="XG11" s="0"/>
+      <c r="XH11" s="0"/>
+      <c r="XI11" s="0"/>
+      <c r="XJ11" s="0"/>
+      <c r="XK11" s="0"/>
+      <c r="XL11" s="0"/>
+      <c r="XM11" s="0"/>
+      <c r="XN11" s="0"/>
+      <c r="XO11" s="0"/>
+      <c r="XP11" s="0"/>
+      <c r="XQ11" s="0"/>
+      <c r="XR11" s="0"/>
+      <c r="XS11" s="0"/>
+      <c r="XT11" s="0"/>
+      <c r="XU11" s="0"/>
+      <c r="XV11" s="0"/>
+      <c r="XW11" s="0"/>
+      <c r="XX11" s="0"/>
+      <c r="XY11" s="0"/>
+      <c r="XZ11" s="0"/>
+      <c r="YA11" s="0"/>
+      <c r="YB11" s="0"/>
+      <c r="YC11" s="0"/>
+      <c r="YD11" s="0"/>
+      <c r="YE11" s="0"/>
+      <c r="YF11" s="0"/>
+      <c r="YG11" s="0"/>
+      <c r="YH11" s="0"/>
+      <c r="YI11" s="0"/>
+      <c r="YJ11" s="0"/>
+      <c r="YK11" s="0"/>
+      <c r="YL11" s="0"/>
+      <c r="YM11" s="0"/>
+      <c r="YN11" s="0"/>
+      <c r="YO11" s="0"/>
+      <c r="YP11" s="0"/>
+      <c r="YQ11" s="0"/>
+      <c r="YR11" s="0"/>
+      <c r="YS11" s="0"/>
+      <c r="YT11" s="0"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
+      <c r="YW11" s="0"/>
+      <c r="YX11" s="0"/>
+      <c r="YY11" s="0"/>
+      <c r="YZ11" s="0"/>
+      <c r="ZA11" s="0"/>
+      <c r="ZB11" s="0"/>
+      <c r="ZC11" s="0"/>
+      <c r="ZD11" s="0"/>
+      <c r="ZE11" s="0"/>
+      <c r="ZF11" s="0"/>
+      <c r="ZG11" s="0"/>
+      <c r="ZH11" s="0"/>
+      <c r="ZI11" s="0"/>
+      <c r="ZJ11" s="0"/>
+      <c r="ZK11" s="0"/>
+      <c r="ZL11" s="0"/>
+      <c r="ZM11" s="0"/>
+      <c r="ZN11" s="0"/>
+      <c r="ZO11" s="0"/>
+      <c r="ZP11" s="0"/>
+      <c r="ZQ11" s="0"/>
+      <c r="ZR11" s="0"/>
+      <c r="ZS11" s="0"/>
+      <c r="ZT11" s="0"/>
+      <c r="ZU11" s="0"/>
+      <c r="ZV11" s="0"/>
+      <c r="ZW11" s="0"/>
+      <c r="ZX11" s="0"/>
+      <c r="ZY11" s="0"/>
+      <c r="ZZ11" s="0"/>
+      <c r="AAA11" s="0"/>
+      <c r="AAB11" s="0"/>
+      <c r="AAC11" s="0"/>
+      <c r="AAD11" s="0"/>
+      <c r="AAE11" s="0"/>
+      <c r="AAF11" s="0"/>
+      <c r="AAG11" s="0"/>
+      <c r="AAH11" s="0"/>
+      <c r="AAI11" s="0"/>
+      <c r="AAJ11" s="0"/>
+      <c r="AAK11" s="0"/>
+      <c r="AAL11" s="0"/>
+      <c r="AAM11" s="0"/>
+      <c r="AAN11" s="0"/>
+      <c r="AAO11" s="0"/>
+      <c r="AAP11" s="0"/>
+      <c r="AAQ11" s="0"/>
+      <c r="AAR11" s="0"/>
+      <c r="AAS11" s="0"/>
+      <c r="AAT11" s="0"/>
+      <c r="AAU11" s="0"/>
+      <c r="AAV11" s="0"/>
+      <c r="AAW11" s="0"/>
+      <c r="AAX11" s="0"/>
+      <c r="AAY11" s="0"/>
+      <c r="AAZ11" s="0"/>
+      <c r="ABA11" s="0"/>
+      <c r="ABB11" s="0"/>
+      <c r="ABC11" s="0"/>
+      <c r="ABD11" s="0"/>
+      <c r="ABE11" s="0"/>
+      <c r="ABF11" s="0"/>
+      <c r="ABG11" s="0"/>
+      <c r="ABH11" s="0"/>
+      <c r="ABI11" s="0"/>
+      <c r="ABJ11" s="0"/>
+      <c r="ABK11" s="0"/>
+      <c r="ABL11" s="0"/>
+      <c r="ABM11" s="0"/>
+      <c r="ABN11" s="0"/>
+      <c r="ABO11" s="0"/>
+      <c r="ABP11" s="0"/>
+      <c r="ABQ11" s="0"/>
+      <c r="ABR11" s="0"/>
+      <c r="ABS11" s="0"/>
+      <c r="ABT11" s="0"/>
+      <c r="ABU11" s="0"/>
+      <c r="ABV11" s="0"/>
+      <c r="ABW11" s="0"/>
+      <c r="ABX11" s="0"/>
+      <c r="ABY11" s="0"/>
+      <c r="ABZ11" s="0"/>
+      <c r="ACA11" s="0"/>
+      <c r="ACB11" s="0"/>
+      <c r="ACC11" s="0"/>
+      <c r="ACD11" s="0"/>
+      <c r="ACE11" s="0"/>
+      <c r="ACF11" s="0"/>
+      <c r="ACG11" s="0"/>
+      <c r="ACH11" s="0"/>
+      <c r="ACI11" s="0"/>
+      <c r="ACJ11" s="0"/>
+      <c r="ACK11" s="0"/>
+      <c r="ACL11" s="0"/>
+      <c r="ACM11" s="0"/>
+      <c r="ACN11" s="0"/>
+      <c r="ACO11" s="0"/>
+      <c r="ACP11" s="0"/>
+      <c r="ACQ11" s="0"/>
+      <c r="ACR11" s="0"/>
+      <c r="ACS11" s="0"/>
+      <c r="ACT11" s="0"/>
+      <c r="ACU11" s="0"/>
+      <c r="ACV11" s="0"/>
+      <c r="ACW11" s="0"/>
+      <c r="ACX11" s="0"/>
+      <c r="ACY11" s="0"/>
+      <c r="ACZ11" s="0"/>
+      <c r="ADA11" s="0"/>
+      <c r="ADB11" s="0"/>
+      <c r="ADC11" s="0"/>
+      <c r="ADD11" s="0"/>
+      <c r="ADE11" s="0"/>
+      <c r="ADF11" s="0"/>
+      <c r="ADG11" s="0"/>
+      <c r="ADH11" s="0"/>
+      <c r="ADI11" s="0"/>
+      <c r="ADJ11" s="0"/>
+      <c r="ADK11" s="0"/>
+      <c r="ADL11" s="0"/>
+      <c r="ADM11" s="0"/>
+      <c r="ADN11" s="0"/>
+      <c r="ADO11" s="0"/>
+      <c r="ADP11" s="0"/>
+      <c r="ADQ11" s="0"/>
+      <c r="ADR11" s="0"/>
+      <c r="ADS11" s="0"/>
+      <c r="ADT11" s="0"/>
+      <c r="ADU11" s="0"/>
+      <c r="ADV11" s="0"/>
+      <c r="ADW11" s="0"/>
+      <c r="ADX11" s="0"/>
+      <c r="ADY11" s="0"/>
+      <c r="ADZ11" s="0"/>
+      <c r="AEA11" s="0"/>
+      <c r="AEB11" s="0"/>
+      <c r="AEC11" s="0"/>
+      <c r="AED11" s="0"/>
+      <c r="AEE11" s="0"/>
+      <c r="AEF11" s="0"/>
+      <c r="AEG11" s="0"/>
+      <c r="AEH11" s="0"/>
+      <c r="AEI11" s="0"/>
+      <c r="AEJ11" s="0"/>
+      <c r="AEK11" s="0"/>
+      <c r="AEL11" s="0"/>
+      <c r="AEM11" s="0"/>
+      <c r="AEN11" s="0"/>
+      <c r="AEO11" s="0"/>
+      <c r="AEP11" s="0"/>
+      <c r="AEQ11" s="0"/>
+      <c r="AER11" s="0"/>
+      <c r="AES11" s="0"/>
+      <c r="AET11" s="0"/>
+      <c r="AEU11" s="0"/>
+      <c r="AEV11" s="0"/>
+      <c r="AEW11" s="0"/>
+      <c r="AEX11" s="0"/>
+      <c r="AEY11" s="0"/>
+      <c r="AEZ11" s="0"/>
+      <c r="AFA11" s="0"/>
+      <c r="AFB11" s="0"/>
+      <c r="AFC11" s="0"/>
+      <c r="AFD11" s="0"/>
+      <c r="AFE11" s="0"/>
+      <c r="AFF11" s="0"/>
+      <c r="AFG11" s="0"/>
+      <c r="AFH11" s="0"/>
+      <c r="AFI11" s="0"/>
+      <c r="AFJ11" s="0"/>
+      <c r="AFK11" s="0"/>
+      <c r="AFL11" s="0"/>
+      <c r="AFM11" s="0"/>
+      <c r="AFN11" s="0"/>
+      <c r="AFO11" s="0"/>
+      <c r="AFP11" s="0"/>
+      <c r="AFQ11" s="0"/>
+      <c r="AFR11" s="0"/>
+      <c r="AFS11" s="0"/>
+      <c r="AFT11" s="0"/>
+      <c r="AFU11" s="0"/>
+      <c r="AFV11" s="0"/>
+      <c r="AFW11" s="0"/>
+      <c r="AFX11" s="0"/>
+      <c r="AFY11" s="0"/>
+      <c r="AFZ11" s="0"/>
+      <c r="AGA11" s="0"/>
+      <c r="AGB11" s="0"/>
+      <c r="AGC11" s="0"/>
+      <c r="AGD11" s="0"/>
+      <c r="AGE11" s="0"/>
+      <c r="AGF11" s="0"/>
+      <c r="AGG11" s="0"/>
+      <c r="AGH11" s="0"/>
+      <c r="AGI11" s="0"/>
+      <c r="AGJ11" s="0"/>
+      <c r="AGK11" s="0"/>
+      <c r="AGL11" s="0"/>
+      <c r="AGM11" s="0"/>
+      <c r="AGN11" s="0"/>
+      <c r="AGO11" s="0"/>
+      <c r="AGP11" s="0"/>
+      <c r="AGQ11" s="0"/>
+      <c r="AGR11" s="0"/>
+      <c r="AGS11" s="0"/>
+      <c r="AGT11" s="0"/>
+      <c r="AGU11" s="0"/>
+      <c r="AGV11" s="0"/>
+      <c r="AGW11" s="0"/>
+      <c r="AGX11" s="0"/>
+      <c r="AGY11" s="0"/>
+      <c r="AGZ11" s="0"/>
+      <c r="AHA11" s="0"/>
+      <c r="AHB11" s="0"/>
+      <c r="AHC11" s="0"/>
+      <c r="AHD11" s="0"/>
+      <c r="AHE11" s="0"/>
+      <c r="AHF11" s="0"/>
+      <c r="AHG11" s="0"/>
+      <c r="AHH11" s="0"/>
+      <c r="AHI11" s="0"/>
+      <c r="AHJ11" s="0"/>
+      <c r="AHK11" s="0"/>
+      <c r="AHL11" s="0"/>
+      <c r="AHM11" s="0"/>
+      <c r="AHN11" s="0"/>
+      <c r="AHO11" s="0"/>
+      <c r="AHP11" s="0"/>
+      <c r="AHQ11" s="0"/>
+      <c r="AHR11" s="0"/>
+      <c r="AHS11" s="0"/>
+      <c r="AHT11" s="0"/>
+      <c r="AHU11" s="0"/>
+      <c r="AHV11" s="0"/>
+      <c r="AHW11" s="0"/>
+      <c r="AHX11" s="0"/>
+      <c r="AHY11" s="0"/>
+      <c r="AHZ11" s="0"/>
+      <c r="AIA11" s="0"/>
+      <c r="AIB11" s="0"/>
+      <c r="AIC11" s="0"/>
+      <c r="AID11" s="0"/>
+      <c r="AIE11" s="0"/>
+      <c r="AIF11" s="0"/>
+      <c r="AIG11" s="0"/>
+      <c r="AIH11" s="0"/>
+      <c r="AII11" s="0"/>
+      <c r="AIJ11" s="0"/>
+      <c r="AIK11" s="0"/>
+      <c r="AIL11" s="0"/>
+      <c r="AIM11" s="0"/>
+      <c r="AIN11" s="0"/>
+      <c r="AIO11" s="0"/>
+      <c r="AIP11" s="0"/>
+      <c r="AIQ11" s="0"/>
+      <c r="AIR11" s="0"/>
+      <c r="AIS11" s="0"/>
+      <c r="AIT11" s="0"/>
+      <c r="AIU11" s="0"/>
+      <c r="AIV11" s="0"/>
+      <c r="AIW11" s="0"/>
+      <c r="AIX11" s="0"/>
+      <c r="AIY11" s="0"/>
+      <c r="AIZ11" s="0"/>
+      <c r="AJA11" s="0"/>
+      <c r="AJB11" s="0"/>
+      <c r="AJC11" s="0"/>
+      <c r="AJD11" s="0"/>
+      <c r="AJE11" s="0"/>
+      <c r="AJF11" s="0"/>
+      <c r="AJG11" s="0"/>
+      <c r="AJH11" s="0"/>
+      <c r="AJI11" s="0"/>
+      <c r="AJJ11" s="0"/>
+      <c r="AJK11" s="0"/>
+      <c r="AJL11" s="0"/>
+      <c r="AJM11" s="0"/>
+      <c r="AJN11" s="0"/>
+      <c r="AJO11" s="0"/>
+      <c r="AJP11" s="0"/>
+      <c r="AJQ11" s="0"/>
+      <c r="AJR11" s="0"/>
+      <c r="AJS11" s="0"/>
+      <c r="AJT11" s="0"/>
+      <c r="AJU11" s="0"/>
+      <c r="AJV11" s="0"/>
+      <c r="AJW11" s="0"/>
+      <c r="AJX11" s="0"/>
+      <c r="AJY11" s="0"/>
+      <c r="AJZ11" s="0"/>
+      <c r="AKA11" s="0"/>
+      <c r="AKB11" s="0"/>
+      <c r="AKC11" s="0"/>
+      <c r="AKD11" s="0"/>
+      <c r="AKE11" s="0"/>
+      <c r="AKF11" s="0"/>
+      <c r="AKG11" s="0"/>
+      <c r="AKH11" s="0"/>
+      <c r="AKI11" s="0"/>
+      <c r="AKJ11" s="0"/>
+      <c r="AKK11" s="0"/>
+      <c r="AKL11" s="0"/>
+      <c r="AKM11" s="0"/>
+      <c r="AKN11" s="0"/>
+      <c r="AKO11" s="0"/>
+      <c r="AKP11" s="0"/>
+      <c r="AKQ11" s="0"/>
+      <c r="AKR11" s="0"/>
+      <c r="AKS11" s="0"/>
+      <c r="AKT11" s="0"/>
+      <c r="AKU11" s="0"/>
+      <c r="AKV11" s="0"/>
+      <c r="AKW11" s="0"/>
+      <c r="AKX11" s="0"/>
+      <c r="AKY11" s="0"/>
+      <c r="AKZ11" s="0"/>
+      <c r="ALA11" s="0"/>
+      <c r="ALB11" s="0"/>
+      <c r="ALC11" s="0"/>
+      <c r="ALD11" s="0"/>
+      <c r="ALE11" s="0"/>
+      <c r="ALF11" s="0"/>
+      <c r="ALG11" s="0"/>
+      <c r="ALH11" s="0"/>
+      <c r="ALI11" s="0"/>
+      <c r="ALJ11" s="0"/>
+      <c r="ALK11" s="0"/>
+      <c r="ALL11" s="0"/>
+      <c r="ALM11" s="0"/>
+      <c r="ALN11" s="0"/>
+      <c r="ALO11" s="0"/>
+      <c r="ALP11" s="0"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7894,15 +11676,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7916,49 +11698,10 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="WebData@123"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7969,12 +11712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="E1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -7997,143 +11740,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="E1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="WebData@123"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="CreateOrder" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -34,7 +35,7 @@
     <t xml:space="preserve">WebData@123</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Data 2</t>
+    <t xml:space="preserve">Web Data 12</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-monthly</t>
@@ -94,10 +95,43 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Billing Category Product 5</t>
   </si>
   <si>
     <t xml:space="preserve">Billing Category Product 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-monthle</t>
   </si>
 </sst>
 </file>
@@ -223,18 +257,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.0962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.19259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.9555555555556"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,28 +310,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI11"/>
+  <dimension ref="A1:AMI12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.9296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.2148148148148"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.5814814814815"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,6 +6557,7 @@
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K7" s="0"/>
       <c r="L7" s="0" t="s">
         <v>6</v>
       </c>
@@ -7549,6 +7584,9 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>19</v>
@@ -9607,7 +9645,7 @@
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -9620,6 +9658,7 @@
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K10" s="0"/>
       <c r="L10" s="0" t="s">
         <v>6</v>
       </c>
@@ -10641,15 +10680,25 @@
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="L11" s="0"/>
+      <c r="I11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
@@ -11662,6 +11711,1039 @@
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
     </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="WebData@123"/>
@@ -11681,27 +12763,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.7111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.0740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="4"/>
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="WebData@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11717,39 +12849,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E1:M2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.6666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.2407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.07407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.3259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2703703703704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8185185185185"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3814814814815"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.8296296296296"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="WebData@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -16,6 +16,8 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -131,7 +133,10 @@
     <t xml:space="preserve">pre paid</t>
   </si>
   <si>
-    <t xml:space="preserve">Semi-monthle</t>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post paid</t>
   </si>
 </sst>
 </file>
@@ -262,13 +267,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.19259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.38888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,20 +323,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.4259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.5814814814815"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.56666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12766,18 +12771,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.7111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12849,29 +12854,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.07407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.3259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8185185185185"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3814814814815"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12899,8 +12904,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="n">
-        <v>2</v>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -12912,19 +12917,25 @@
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>33</v>
@@ -12935,10 +12946,135 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="0"/>
       <c r="H4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">WebData@123</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Data 15</t>
+    <t xml:space="preserve">Web Data 18</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-monthly</t>
@@ -311,7 +311,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,8 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +41,7 @@
     <t xml:space="preserve">WebData@123</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Data 18</t>
+    <t xml:space="preserve">Web Data 20</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-monthly</t>
@@ -48,7 +50,7 @@
     <t xml:space="preserve">Semi-Monthly</t>
   </si>
   <si>
-    <t xml:space="preserve">Services 2</t>
+    <t xml:space="preserve">Services</t>
   </si>
   <si>
     <t xml:space="preserve">Billing Product 1</t>
@@ -260,13 +262,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.58518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.78148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.4259259259259"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,23 +312,23 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.95925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,6 +370,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0"/>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
@@ -415,6 +418,14 @@
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+      <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
@@ -454,18 +465,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,26 +550,26 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.9555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.6740740740741"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.0481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.6407407407407"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,13 +263,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.78148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.88148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,23 +313,23 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.2037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.34814814814815"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,6 +360,7 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
@@ -464,19 +466,19 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.837037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,25 +553,25 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.0481481481481"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.9111111111111"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.4851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.6333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.5"/>
+    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.837037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -130,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">pre paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$60.00</t>
   </si>
   <si>
     <t xml:space="preserve">post paid</t>
@@ -263,13 +267,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.88148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.97777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.0148148148148"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,17 +323,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.34814814814815"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.6703703703704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,19 +470,19 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.1296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,26 +556,26 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.4851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.6333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.5"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2222222222222"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.0851851851852"/>
+    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.1296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -599,7 +603,9 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -612,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">pre paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US$60.00</t>
   </si>
   <si>
     <t xml:space="preserve">post paid</t>
@@ -557,7 +554,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,9 +600,7 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -618,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,15 +15,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -50,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Semi-Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Services</t>
@@ -258,19 +252,19 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.97777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.0148148148148"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,8 +283,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>1</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -299,7 +293,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -314,23 +308,23 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.6703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.40740740740741"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="10" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,41 +338,41 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0"/>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="0"/>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>
@@ -386,40 +380,40 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,18 +426,18 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +446,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -467,19 +461,19 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.1296296296296"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="13.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,43 +487,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +532,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -553,26 +547,26 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.0851851851852"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.1296296296296"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="13.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -586,19 +580,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -607,61 +601,61 @@
     </row>
     <row r="2" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +664,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">WebData@123</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Data 20</t>
+    <t xml:space="preserve">Web Data 49</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-monthly</t>
@@ -100,25 +100,43 @@
     <t xml:space="preserve">Billing Category Product 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Direct Customer</t>
+    <t xml:space="preserve">LEO HOLDER</t>
   </si>
   <si>
     <t xml:space="preserve">Leo Holder</t>
   </si>
   <si>
+    <t xml:space="preserve">WILLIAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">William</t>
   </si>
   <si>
+    <t xml:space="preserve">OLIVIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Olivia</t>
   </si>
   <si>
+    <t xml:space="preserve">ISABELLA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isabella</t>
   </si>
   <si>
+    <t xml:space="preserve">SOPHIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sophia</t>
   </si>
   <si>
+    <t xml:space="preserve">JACOB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jacob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAYDEN</t>
   </si>
   <si>
     <t xml:space="preserve">Jayden</t>
@@ -252,8 +270,8 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,8 +280,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.01"/>
   </cols>
   <sheetData>
@@ -320,8 +338,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="10" style="1" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.41"/>
@@ -462,7 +480,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,8 +488,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="13.13"/>
   </cols>
@@ -497,33 +514,51 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +582,7 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -559,8 +594,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.7"/>
@@ -586,7 +621,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -601,13 +636,13 @@
     </row>
     <row r="2" customFormat="false" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -618,7 +653,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -633,7 +668,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
@@ -642,7 +677,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
@@ -651,7 +686,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">WebData@123</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Data 49</t>
+    <t xml:space="preserve">Web Data 1</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-monthly</t>
@@ -270,7 +270,7 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -582,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,138 +14,134 @@
     <sheet name="CreateOrder" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$15:$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$13:$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$13:$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebData@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Data 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-Monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Product 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Dollar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Product 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Product 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Category Product 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Category Product 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Category Product 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Category Product 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Category Product 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Category Product 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEO HOLDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leo Holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILLIAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLIVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISABELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOPHIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JACOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAYDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jayden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post paid</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>WebData@123</t>
+  </si>
+  <si>
+    <t>Web Data 1</t>
+  </si>
+  <si>
+    <t>Semi-monthly</t>
+  </si>
+  <si>
+    <t>Semi-Monthly</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Dependent Product 1</t>
+  </si>
+  <si>
+    <t>United States Dollar</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Dependent Product 2</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>One time</t>
+  </si>
+  <si>
+    <t>Dependent Product 3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dependent Category</t>
+  </si>
+  <si>
+    <t>Dependent Category Product 1</t>
+  </si>
+  <si>
+    <t>Dependent Category Product 2</t>
+  </si>
+  <si>
+    <t>Dependent Category Product 3</t>
+  </si>
+  <si>
+    <t>Dependent Category Product 4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Dependent Category Product 5</t>
+  </si>
+  <si>
+    <t>Dependent Category Product 6</t>
+  </si>
+  <si>
+    <t>LEO HOLDER</t>
+  </si>
+  <si>
+    <t>Leo Holder</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>OLIVIA</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>SOPHIA</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>JAYDEN</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>pre paid</t>
+  </si>
+  <si>
+    <t>post paid</t>
   </si>
 </sst>
 </file>
@@ -153,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
@@ -270,19 +266,19 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.01"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.8074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.98888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.0148148148148"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,7 +307,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -324,25 +320,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="10" style="1" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.41"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.6703703703704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.45925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7888888888889"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.41481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,26 +431,18 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0"/>
-      <c r="G8" s="0"/>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0"/>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -464,7 +452,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -479,18 +467,18 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="13.13"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="20.6814814814815"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.1296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,7 +555,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -582,26 +570,26 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="1" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="13.13"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.337037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2074074074074"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.0851851851852"/>
+    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.1296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -699,7 +687,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -9,20 +9,22 @@
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="AddProductCategory1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="AddProductCategory" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="AddCustomer" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="CreateOrder" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$13:$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory1!$13:$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory!$13:$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory!$13:$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">AddProductCategory!$13:$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">AddProductCategory!$13:$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>admin</t>
   </si>
@@ -30,7 +32,7 @@
     <t>WebData@123</t>
   </si>
   <si>
-    <t>Web Data 1</t>
+    <t>Web Data 11</t>
   </si>
   <si>
     <t>Semi-monthly</t>
@@ -96,46 +98,40 @@
     <t>Dependent Category Product 6</t>
   </si>
   <si>
-    <t>LEO HOLDER</t>
-  </si>
-  <si>
-    <t>Leo Holder</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>OLIVIA</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>SOPHIA</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>JACOB</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>JAYDEN</t>
-  </si>
-  <si>
-    <t>Jayden</t>
+    <t>LEO DEPENDENT</t>
+  </si>
+  <si>
+    <t>Leo Dependent</t>
+  </si>
+  <si>
+    <t>WILLIAM DEPENDENT</t>
+  </si>
+  <si>
+    <t>William Dependent</t>
+  </si>
+  <si>
+    <t>OLIVIA DEPENDENT</t>
+  </si>
+  <si>
+    <t>Olivia Dependent</t>
+  </si>
+  <si>
+    <t>ISABELLA DEPENDENT</t>
+  </si>
+  <si>
+    <t>Isabella Dependent</t>
+  </si>
+  <si>
+    <t>SOPHIA DEPENDENT</t>
+  </si>
+  <si>
+    <t>Sophia Dependent</t>
+  </si>
+  <si>
+    <t>JACOB DEPENDENT</t>
+  </si>
+  <si>
+    <t>Jacob Dependent</t>
   </si>
   <si>
     <t>pre paid</t>
@@ -323,7 +319,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -465,10 +461,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,7 +513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
@@ -539,14 +535,6 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -570,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,7 +567,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6814814814815"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7666666666667"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.6814814814815"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.337037037037"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8444444444444"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2074074074074"/>
@@ -609,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -630,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -654,7 +642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>

--- a/ProductDependency_TestData.xlsx
+++ b/ProductDependency_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OrderPeriod" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,129 +15,131 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory!$13:$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">AddProductCategory!$13:$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">AddProductCategory!$13:$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">AddProductCategory!$13:$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>WebData@123</t>
-  </si>
-  <si>
-    <t>Web Data 11</t>
-  </si>
-  <si>
-    <t>Semi-monthly</t>
-  </si>
-  <si>
-    <t>Semi-Monthly</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Dependent Product 1</t>
-  </si>
-  <si>
-    <t>United States Dollar</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Dependent Product 2</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>One time</t>
-  </si>
-  <si>
-    <t>Dependent Product 3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Dependent Category</t>
-  </si>
-  <si>
-    <t>Dependent Category Product 1</t>
-  </si>
-  <si>
-    <t>Dependent Category Product 2</t>
-  </si>
-  <si>
-    <t>Dependent Category Product 3</t>
-  </si>
-  <si>
-    <t>Dependent Category Product 4</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Dependent Category Product 5</t>
-  </si>
-  <si>
-    <t>Dependent Category Product 6</t>
-  </si>
-  <si>
-    <t>LEO DEPENDENT</t>
-  </si>
-  <si>
-    <t>Leo Dependent</t>
-  </si>
-  <si>
-    <t>WILLIAM DEPENDENT</t>
-  </si>
-  <si>
-    <t>William Dependent</t>
-  </si>
-  <si>
-    <t>OLIVIA DEPENDENT</t>
-  </si>
-  <si>
-    <t>Olivia Dependent</t>
-  </si>
-  <si>
-    <t>ISABELLA DEPENDENT</t>
-  </si>
-  <si>
-    <t>Isabella Dependent</t>
-  </si>
-  <si>
-    <t>SOPHIA DEPENDENT</t>
-  </si>
-  <si>
-    <t>Sophia Dependent</t>
-  </si>
-  <si>
-    <t>JACOB DEPENDENT</t>
-  </si>
-  <si>
-    <t>Jacob Dependent</t>
-  </si>
-  <si>
-    <t>pre paid</t>
-  </si>
-  <si>
-    <t>post paid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebData@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Data 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Product 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Product 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Product 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category Product 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category Product 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category Product 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category Product 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category Product 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Category Product 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEO DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLIAM DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVIA DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISABELLA DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOPHIA DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACOB DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post paid</t>
   </si>
 </sst>
 </file>
@@ -145,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
@@ -262,22 +264,22 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.8074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.98888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.0148148148148"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -303,7 +305,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -318,23 +320,23 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.6703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.45925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.41481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="10" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +450,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -463,18 +465,18 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="20.6814814814815"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.1296296296296"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="13.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +545,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -558,26 +560,26 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.6814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.337037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2074074074074"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.0851851851852"/>
-    <col collapsed="false" hidden="false" max="1022" min="13" style="1" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.1296296296296"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="13.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -605,7 +607,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -675,7 +679,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
